--- a/资讯媒体分档.xlsx
+++ b/资讯媒体分档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994">
   <si>
     <t>媒体名单</t>
   </si>
@@ -31,6 +31,9 @@
     <t>证监会</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/pub/newsite/zjhxwfb/</t>
+  </si>
+  <si>
     <t>合计</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>国家电力监管委员会</t>
+  </si>
+  <si>
+    <t>http://www.gov.cn/xwfb/index.htm</t>
   </si>
   <si>
     <t>能源局</t>
@@ -3000,12 +3006,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3034,19 +3040,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3055,17 +3048,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3078,17 +3064,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3103,7 +3088,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3115,16 +3100,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3145,15 +3137,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3174,38 +3190,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3220,13 +3206,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3238,7 +3314,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3250,103 +3368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3358,49 +3380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,16 +3409,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3468,16 +3463,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3485,24 +3480,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3518,11 +3500,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3531,155 +3511,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3704,13 +3684,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4067,7 +4044,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4095,16 +4072,19 @@
         <f>$G$2/20</f>
         <v>0.016</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3">
         <v>0.32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B21" si="0">$G$2/20</f>
@@ -4112,8 +4092,8 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
@@ -4121,8 +4101,8 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -4130,8 +4110,8 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
+      <c r="A6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -4139,8 +4119,8 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -4148,8 +4128,8 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
+      <c r="A8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
@@ -4157,8 +4137,8 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
@@ -4166,8 +4146,8 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
+      <c r="A10" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
@@ -4175,8 +4155,8 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
+      <c r="A11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
@@ -4184,8 +4164,8 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
+      <c r="A12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
@@ -4193,8 +4173,8 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>15</v>
+      <c r="A13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
@@ -4202,8 +4182,8 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
-        <v>16</v>
+      <c r="A14" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
@@ -4211,8 +4191,8 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
-        <v>17</v>
+      <c r="A15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
@@ -4220,8 +4200,8 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
+      <c r="A16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
@@ -4229,8 +4209,8 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>19</v>
+      <c r="A17" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
@@ -4238,8 +4218,8 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>20</v>
+      <c r="A18" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
@@ -4247,33 +4227,36 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
+      <c r="A19" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>0.016</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>0.016</v>
       </c>
+      <c r="C20" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
-        <v>23</v>
+      <c r="A21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>0.016</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>24</v>
+      <c r="C21" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4281,6 +4264,8 @@
     <hyperlink ref="A19" r:id="rId1" display="环保总局"/>
     <hyperlink ref="A21" r:id="rId2" display="能源局"/>
     <hyperlink ref="C21" r:id="rId3" display="http://www.nea.gov.cn/xwfb/index.htm"/>
+    <hyperlink ref="C20" r:id="rId4" display="http://www.gov.cn/xwfb/index.htm"/>
+    <hyperlink ref="C2" r:id="rId5" display="http://www.csrc.gov.cn/pub/newsite/zjhxwfb/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -4314,14 +4299,14 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5">
         <f>$G$2/22</f>
         <v>0.0122727272727273</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3">
         <v>0.27</v>
@@ -4329,7 +4314,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B23" si="0">$G$2/22</f>
@@ -4338,7 +4323,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
@@ -4347,7 +4332,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -4356,7 +4341,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -4365,7 +4350,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -4374,7 +4359,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
@@ -4383,7 +4368,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
@@ -4392,7 +4377,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
@@ -4401,7 +4386,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
@@ -4410,7 +4395,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
@@ -4419,7 +4404,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
@@ -4428,7 +4413,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
@@ -4437,7 +4422,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
@@ -4446,7 +4431,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
@@ -4455,7 +4440,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
@@ -4464,7 +4449,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
@@ -4473,7 +4458,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
@@ -4482,7 +4467,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
@@ -4491,7 +4476,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
@@ -4500,7 +4485,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
@@ -4509,7 +4494,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
@@ -4548,14 +4533,14 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5">
         <f>$G$2/52</f>
         <v>0.00442307692307692</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3">
         <v>0.23</v>
@@ -4563,7 +4548,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B53" si="0">$G$2/52</f>
@@ -4572,7 +4557,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
@@ -4581,7 +4566,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -4590,7 +4575,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -4599,7 +4584,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -4608,7 +4593,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
@@ -4617,7 +4602,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
@@ -4626,7 +4611,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
@@ -4635,7 +4620,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
@@ -4644,7 +4629,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
@@ -4653,7 +4638,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
@@ -4662,7 +4647,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
@@ -4671,7 +4656,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
@@ -4680,7 +4665,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
@@ -4689,7 +4674,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
@@ -4698,7 +4683,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
@@ -4707,7 +4692,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
@@ -4716,7 +4701,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
@@ -4725,7 +4710,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
@@ -4734,7 +4719,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
@@ -4743,7 +4728,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
@@ -4752,7 +4737,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
@@ -4761,7 +4746,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="0"/>
@@ -4770,7 +4755,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5">
         <f t="shared" si="0"/>
@@ -4779,7 +4764,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="0"/>
@@ -4788,7 +4773,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" s="5">
         <f t="shared" si="0"/>
@@ -4797,7 +4782,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="0"/>
@@ -4806,7 +4791,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" si="0"/>
@@ -4815,7 +4800,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B31" s="5">
         <f t="shared" si="0"/>
@@ -4824,7 +4809,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32" s="5">
         <f t="shared" si="0"/>
@@ -4833,7 +4818,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" si="0"/>
@@ -4842,7 +4827,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" s="5">
         <f t="shared" si="0"/>
@@ -4851,7 +4836,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="5">
         <f t="shared" si="0"/>
@@ -4860,7 +4845,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="5">
         <f t="shared" si="0"/>
@@ -4869,7 +4854,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="5">
         <f t="shared" si="0"/>
@@ -4878,7 +4863,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="5">
         <f t="shared" si="0"/>
@@ -4887,7 +4872,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="5">
         <f t="shared" si="0"/>
@@ -4896,7 +4881,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="5">
         <f t="shared" si="0"/>
@@ -4905,7 +4890,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" si="0"/>
@@ -4914,7 +4899,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="5">
         <f t="shared" si="0"/>
@@ -4923,7 +4908,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="5">
         <f t="shared" si="0"/>
@@ -4932,7 +4917,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="5">
         <f t="shared" si="0"/>
@@ -4941,7 +4926,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="5">
         <f t="shared" si="0"/>
@@ -4950,7 +4935,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="5">
         <f t="shared" si="0"/>
@@ -4959,7 +4944,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="5">
         <f t="shared" si="0"/>
@@ -4968,7 +4953,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="5">
         <f t="shared" si="0"/>
@@ -4977,7 +4962,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="5">
         <f t="shared" si="0"/>
@@ -4986,7 +4971,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="5">
         <f t="shared" si="0"/>
@@ -4995,7 +4980,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="5">
         <f t="shared" si="0"/>
@@ -5004,7 +4989,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="5">
         <f t="shared" si="0"/>
@@ -5013,7 +4998,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="5">
         <f t="shared" si="0"/>
@@ -5052,14 +5037,14 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <f>$G$2/895</f>
         <v>0.000201117318435754</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3">
         <v>0.18</v>
@@ -5067,7 +5052,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">$G$2/895</f>
@@ -5076,7 +5061,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -5085,7 +5070,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -5094,7 +5079,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -5103,7 +5088,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -5112,7 +5097,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -5121,7 +5106,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -5130,7 +5115,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -5139,7 +5124,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -5148,7 +5133,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -5157,7 +5142,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -5166,7 +5151,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -5175,7 +5160,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -5184,7 +5169,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -5193,7 +5178,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -5202,7 +5187,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -5211,7 +5196,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -5220,7 +5205,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -5229,7 +5214,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -5238,7 +5223,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -5247,7 +5232,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -5256,7 +5241,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -5265,7 +5250,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -5274,7 +5259,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -5283,7 +5268,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -5292,7 +5277,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -5301,7 +5286,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -5310,7 +5295,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -5319,7 +5304,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -5328,7 +5313,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -5337,7 +5322,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -5346,7 +5331,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -5355,7 +5340,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -5364,7 +5349,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -5373,7 +5358,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -5382,7 +5367,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -5391,7 +5376,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -5400,7 +5385,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -5409,7 +5394,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -5418,7 +5403,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -5427,7 +5412,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -5436,7 +5421,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -5445,7 +5430,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -5454,7 +5439,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -5463,7 +5448,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -5472,7 +5457,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -5481,7 +5466,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -5490,7 +5475,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -5499,7 +5484,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -5508,7 +5493,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -5517,7 +5502,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -5526,7 +5511,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
@@ -5535,7 +5520,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
@@ -5544,7 +5529,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
@@ -5553,7 +5538,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
@@ -5562,7 +5547,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
@@ -5571,7 +5556,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
@@ -5580,7 +5565,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
@@ -5589,7 +5574,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
@@ -5598,7 +5583,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -5607,7 +5592,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
@@ -5616,7 +5601,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
@@ -5625,7 +5610,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
@@ -5634,7 +5619,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
@@ -5643,7 +5628,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="1">$G$2/895</f>
@@ -5652,7 +5637,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
@@ -5661,7 +5646,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
@@ -5670,7 +5655,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
@@ -5679,7 +5664,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
@@ -5688,7 +5673,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
@@ -5697,7 +5682,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
@@ -5706,7 +5691,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
@@ -5715,7 +5700,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
@@ -5724,7 +5709,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
@@ -5733,7 +5718,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
@@ -5742,7 +5727,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
@@ -5751,7 +5736,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
@@ -5760,7 +5745,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
@@ -5769,7 +5754,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
@@ -5778,7 +5763,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
@@ -5787,7 +5772,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
@@ -5796,7 +5781,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
@@ -5805,7 +5790,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
@@ -5814,7 +5799,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
@@ -5823,7 +5808,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
@@ -5832,7 +5817,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
@@ -5841,7 +5826,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
@@ -5850,7 +5835,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
@@ -5859,7 +5844,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
@@ -5868,7 +5853,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
@@ -5877,7 +5862,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
@@ -5886,7 +5871,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
@@ -5895,7 +5880,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
@@ -5904,7 +5889,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
@@ -5913,7 +5898,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
@@ -5922,7 +5907,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
@@ -5931,7 +5916,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
@@ -5940,7 +5925,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
@@ -5949,7 +5934,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
@@ -5958,7 +5943,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
@@ -5967,7 +5952,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
@@ -5976,7 +5961,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
@@ -5985,7 +5970,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
@@ -5994,7 +5979,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
@@ -6003,7 +5988,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
@@ -6012,7 +5997,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
@@ -6021,7 +6006,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
@@ -6030,7 +6015,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
@@ -6039,7 +6024,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
@@ -6048,7 +6033,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
@@ -6057,7 +6042,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
@@ -6066,7 +6051,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
@@ -6075,7 +6060,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
@@ -6084,7 +6069,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
@@ -6093,7 +6078,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
@@ -6102,7 +6087,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
@@ -6111,7 +6096,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
@@ -6120,7 +6105,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
@@ -6129,7 +6114,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
@@ -6138,7 +6123,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
@@ -6147,7 +6132,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
@@ -6156,7 +6141,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
@@ -6165,7 +6150,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
@@ -6174,7 +6159,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
@@ -6183,7 +6168,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
@@ -6192,7 +6177,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
@@ -6201,7 +6186,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
@@ -6210,7 +6195,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
@@ -6219,7 +6204,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="2">$G$2/895</f>
@@ -6228,7 +6213,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
@@ -6237,7 +6222,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
@@ -6246,7 +6231,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
@@ -6255,7 +6240,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
@@ -6264,7 +6249,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
@@ -6273,7 +6258,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
@@ -6282,7 +6267,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
@@ -6291,7 +6276,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
@@ -6300,7 +6285,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
@@ -6309,7 +6294,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
@@ -6318,7 +6303,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
@@ -6327,7 +6312,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
@@ -6336,7 +6321,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
@@ -6345,7 +6330,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
@@ -6354,7 +6339,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
@@ -6363,7 +6348,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
@@ -6372,7 +6357,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
@@ -6381,7 +6366,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
@@ -6390,7 +6375,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
@@ -6399,7 +6384,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
@@ -6408,7 +6393,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
@@ -6417,7 +6402,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
@@ -6426,7 +6411,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
@@ -6435,7 +6420,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
@@ -6444,7 +6429,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
@@ -6453,7 +6438,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
@@ -6462,7 +6447,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
@@ -6471,7 +6456,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
@@ -6480,7 +6465,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
@@ -6489,7 +6474,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
@@ -6498,7 +6483,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
@@ -6507,7 +6492,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
@@ -6516,7 +6501,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
@@ -6525,7 +6510,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
@@ -6534,7 +6519,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
@@ -6543,7 +6528,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
@@ -6552,7 +6537,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
@@ -6561,7 +6546,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
@@ -6570,7 +6555,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
@@ -6579,7 +6564,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
@@ -6588,7 +6573,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
@@ -6597,7 +6582,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
@@ -6606,7 +6591,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
@@ -6615,7 +6600,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
@@ -6624,7 +6609,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
@@ -6633,7 +6618,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
@@ -6642,7 +6627,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
@@ -6651,7 +6636,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
@@ -6660,7 +6645,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
@@ -6669,7 +6654,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
@@ -6678,7 +6663,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
@@ -6687,7 +6672,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
@@ -6696,7 +6681,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B184">
         <f t="shared" si="2"/>
@@ -6705,7 +6690,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
@@ -6714,7 +6699,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B186">
         <f t="shared" si="2"/>
@@ -6723,7 +6708,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B187">
         <f t="shared" si="2"/>
@@ -6732,7 +6717,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B188">
         <f t="shared" si="2"/>
@@ -6741,7 +6726,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B189">
         <f t="shared" si="2"/>
@@ -6750,7 +6735,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
@@ -6759,7 +6744,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
@@ -6768,7 +6753,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B192">
         <f t="shared" si="2"/>
@@ -6777,7 +6762,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B193">
         <f t="shared" si="2"/>
@@ -6786,7 +6771,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B194">
         <f t="shared" si="2"/>
@@ -6795,7 +6780,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B195">
         <f t="shared" ref="B195:B258" si="3">$G$2/895</f>
@@ -6804,7 +6789,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B196">
         <f t="shared" si="3"/>
@@ -6813,7 +6798,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B197">
         <f t="shared" si="3"/>
@@ -6822,7 +6807,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
@@ -6831,7 +6816,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
@@ -6840,7 +6825,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
@@ -6849,7 +6834,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
@@ -6858,7 +6843,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
@@ -6867,7 +6852,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
@@ -6876,7 +6861,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
@@ -6885,7 +6870,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
@@ -6894,7 +6879,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
@@ -6903,7 +6888,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>
@@ -6912,7 +6897,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B208">
         <f t="shared" si="3"/>
@@ -6921,7 +6906,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B209">
         <f t="shared" si="3"/>
@@ -6930,7 +6915,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B210">
         <f t="shared" si="3"/>
@@ -6939,7 +6924,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B211">
         <f t="shared" si="3"/>
@@ -6948,7 +6933,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B212">
         <f t="shared" si="3"/>
@@ -6957,7 +6942,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B213">
         <f t="shared" si="3"/>
@@ -6966,7 +6951,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B214">
         <f t="shared" si="3"/>
@@ -6975,7 +6960,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B215">
         <f t="shared" si="3"/>
@@ -6984,7 +6969,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B216">
         <f t="shared" si="3"/>
@@ -6993,7 +6978,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B217">
         <f t="shared" si="3"/>
@@ -7002,7 +6987,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B218">
         <f t="shared" si="3"/>
@@ -7011,7 +6996,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B219">
         <f t="shared" si="3"/>
@@ -7020,7 +7005,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B220">
         <f t="shared" si="3"/>
@@ -7029,7 +7014,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B221">
         <f t="shared" si="3"/>
@@ -7038,7 +7023,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B222">
         <f t="shared" si="3"/>
@@ -7047,7 +7032,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B223">
         <f t="shared" si="3"/>
@@ -7056,7 +7041,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B224">
         <f t="shared" si="3"/>
@@ -7065,7 +7050,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B225">
         <f t="shared" si="3"/>
@@ -7074,7 +7059,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B226">
         <f t="shared" si="3"/>
@@ -7083,7 +7068,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B227">
         <f t="shared" si="3"/>
@@ -7092,7 +7077,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B228">
         <f t="shared" si="3"/>
@@ -7101,7 +7086,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B229">
         <f t="shared" si="3"/>
@@ -7110,7 +7095,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B230">
         <f t="shared" si="3"/>
@@ -7119,7 +7104,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B231">
         <f t="shared" si="3"/>
@@ -7128,7 +7113,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B232">
         <f t="shared" si="3"/>
@@ -7137,7 +7122,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B233">
         <f t="shared" si="3"/>
@@ -7146,7 +7131,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B234">
         <f t="shared" si="3"/>
@@ -7155,7 +7140,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B235">
         <f t="shared" si="3"/>
@@ -7164,7 +7149,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B236">
         <f t="shared" si="3"/>
@@ -7173,7 +7158,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B237">
         <f t="shared" si="3"/>
@@ -7182,7 +7167,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B238">
         <f t="shared" si="3"/>
@@ -7191,7 +7176,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B239">
         <f t="shared" si="3"/>
@@ -7200,7 +7185,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B240">
         <f t="shared" si="3"/>
@@ -7209,7 +7194,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B241">
         <f t="shared" si="3"/>
@@ -7218,7 +7203,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B242">
         <f t="shared" si="3"/>
@@ -7227,7 +7212,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B243">
         <f t="shared" si="3"/>
@@ -7236,7 +7221,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B244">
         <f t="shared" si="3"/>
@@ -7245,7 +7230,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B245">
         <f t="shared" si="3"/>
@@ -7254,7 +7239,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B246">
         <f t="shared" si="3"/>
@@ -7263,7 +7248,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B247">
         <f t="shared" si="3"/>
@@ -7272,7 +7257,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B248">
         <f t="shared" si="3"/>
@@ -7281,7 +7266,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B249">
         <f t="shared" si="3"/>
@@ -7290,7 +7275,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B250">
         <f t="shared" si="3"/>
@@ -7299,7 +7284,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B251">
         <f t="shared" si="3"/>
@@ -7308,7 +7293,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B252">
         <f t="shared" si="3"/>
@@ -7317,7 +7302,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B253">
         <f t="shared" si="3"/>
@@ -7326,7 +7311,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B254">
         <f t="shared" si="3"/>
@@ -7335,7 +7320,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B255">
         <f t="shared" si="3"/>
@@ -7344,7 +7329,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B256">
         <f t="shared" si="3"/>
@@ -7353,7 +7338,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B257">
         <f t="shared" si="3"/>
@@ -7362,7 +7347,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B258">
         <f t="shared" si="3"/>
@@ -7371,7 +7356,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B259">
         <f t="shared" ref="B259:B322" si="4">$G$2/895</f>
@@ -7380,7 +7365,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B260">
         <f t="shared" si="4"/>
@@ -7389,7 +7374,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B261">
         <f t="shared" si="4"/>
@@ -7398,7 +7383,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B262">
         <f t="shared" si="4"/>
@@ -7407,7 +7392,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B263">
         <f t="shared" si="4"/>
@@ -7416,7 +7401,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B264">
         <f t="shared" si="4"/>
@@ -7425,7 +7410,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B265">
         <f t="shared" si="4"/>
@@ -7434,7 +7419,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B266">
         <f t="shared" si="4"/>
@@ -7443,7 +7428,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B267">
         <f t="shared" si="4"/>
@@ -7452,7 +7437,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B268">
         <f t="shared" si="4"/>
@@ -7461,7 +7446,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B269">
         <f t="shared" si="4"/>
@@ -7470,7 +7455,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B270">
         <f t="shared" si="4"/>
@@ -7479,7 +7464,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B271">
         <f t="shared" si="4"/>
@@ -7488,7 +7473,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B272">
         <f t="shared" si="4"/>
@@ -7497,7 +7482,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B273">
         <f t="shared" si="4"/>
@@ -7506,7 +7491,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B274">
         <f t="shared" si="4"/>
@@ -7515,7 +7500,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B275">
         <f t="shared" si="4"/>
@@ -7524,7 +7509,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B276">
         <f t="shared" si="4"/>
@@ -7533,7 +7518,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B277">
         <f t="shared" si="4"/>
@@ -7542,7 +7527,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B278">
         <f t="shared" si="4"/>
@@ -7551,7 +7536,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B279">
         <f t="shared" si="4"/>
@@ -7560,7 +7545,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B280">
         <f t="shared" si="4"/>
@@ -7569,7 +7554,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B281">
         <f t="shared" si="4"/>
@@ -7578,7 +7563,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B282">
         <f t="shared" si="4"/>
@@ -7587,7 +7572,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B283">
         <f t="shared" si="4"/>
@@ -7596,7 +7581,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B284">
         <f t="shared" si="4"/>
@@ -7605,7 +7590,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B285">
         <f t="shared" si="4"/>
@@ -7614,7 +7599,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B286">
         <f t="shared" si="4"/>
@@ -7623,7 +7608,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B287">
         <f t="shared" si="4"/>
@@ -7632,7 +7617,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B288">
         <f t="shared" si="4"/>
@@ -7641,7 +7626,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B289">
         <f t="shared" si="4"/>
@@ -7650,7 +7635,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B290">
         <f t="shared" si="4"/>
@@ -7659,7 +7644,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B291">
         <f t="shared" si="4"/>
@@ -7668,7 +7653,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B292">
         <f t="shared" si="4"/>
@@ -7677,7 +7662,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B293">
         <f t="shared" si="4"/>
@@ -7686,7 +7671,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B294">
         <f t="shared" si="4"/>
@@ -7695,7 +7680,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B295">
         <f t="shared" si="4"/>
@@ -7704,7 +7689,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B296">
         <f t="shared" si="4"/>
@@ -7713,7 +7698,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B297">
         <f t="shared" si="4"/>
@@ -7722,7 +7707,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B298">
         <f t="shared" si="4"/>
@@ -7731,7 +7716,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B299">
         <f t="shared" si="4"/>
@@ -7740,7 +7725,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B300">
         <f t="shared" si="4"/>
@@ -7749,7 +7734,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B301">
         <f t="shared" si="4"/>
@@ -7758,7 +7743,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B302">
         <f t="shared" si="4"/>
@@ -7767,7 +7752,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B303">
         <f t="shared" si="4"/>
@@ -7776,7 +7761,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B304">
         <f t="shared" si="4"/>
@@ -7785,7 +7770,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B305">
         <f t="shared" si="4"/>
@@ -7794,7 +7779,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B306">
         <f t="shared" si="4"/>
@@ -7803,7 +7788,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B307">
         <f t="shared" si="4"/>
@@ -7812,7 +7797,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B308">
         <f t="shared" si="4"/>
@@ -7821,7 +7806,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B309">
         <f t="shared" si="4"/>
@@ -7830,7 +7815,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B310">
         <f t="shared" si="4"/>
@@ -7839,7 +7824,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B311">
         <f t="shared" si="4"/>
@@ -7848,7 +7833,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B312">
         <f t="shared" si="4"/>
@@ -7857,7 +7842,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B313">
         <f t="shared" si="4"/>
@@ -7866,7 +7851,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B314">
         <f t="shared" si="4"/>
@@ -7875,7 +7860,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B315">
         <f t="shared" si="4"/>
@@ -7884,7 +7869,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B316">
         <f t="shared" si="4"/>
@@ -7893,7 +7878,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B317">
         <f t="shared" si="4"/>
@@ -7902,7 +7887,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B318">
         <f t="shared" si="4"/>
@@ -7911,7 +7896,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B319">
         <f t="shared" si="4"/>
@@ -7920,7 +7905,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B320">
         <f t="shared" si="4"/>
@@ -7929,7 +7914,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B321">
         <f t="shared" si="4"/>
@@ -7938,7 +7923,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B322">
         <f t="shared" si="4"/>
@@ -7947,7 +7932,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B323">
         <f t="shared" ref="B323:B386" si="5">$G$2/895</f>
@@ -7956,7 +7941,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B324">
         <f t="shared" si="5"/>
@@ -7965,7 +7950,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B325">
         <f t="shared" si="5"/>
@@ -7974,7 +7959,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B326">
         <f t="shared" si="5"/>
@@ -7983,7 +7968,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B327">
         <f t="shared" si="5"/>
@@ -7992,7 +7977,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B328">
         <f t="shared" si="5"/>
@@ -8001,7 +7986,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B329">
         <f t="shared" si="5"/>
@@ -8010,7 +7995,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B330">
         <f t="shared" si="5"/>
@@ -8019,7 +8004,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B331">
         <f t="shared" si="5"/>
@@ -8028,7 +8013,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B332">
         <f t="shared" si="5"/>
@@ -8037,7 +8022,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B333">
         <f t="shared" si="5"/>
@@ -8046,7 +8031,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B334">
         <f t="shared" si="5"/>
@@ -8055,7 +8040,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B335">
         <f t="shared" si="5"/>
@@ -8064,7 +8049,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B336">
         <f t="shared" si="5"/>
@@ -8073,7 +8058,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B337">
         <f t="shared" si="5"/>
@@ -8082,7 +8067,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B338">
         <f t="shared" si="5"/>
@@ -8091,7 +8076,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B339">
         <f t="shared" si="5"/>
@@ -8100,7 +8085,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B340">
         <f t="shared" si="5"/>
@@ -8109,7 +8094,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B341">
         <f t="shared" si="5"/>
@@ -8118,7 +8103,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B342">
         <f t="shared" si="5"/>
@@ -8127,7 +8112,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B343">
         <f t="shared" si="5"/>
@@ -8136,7 +8121,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B344">
         <f t="shared" si="5"/>
@@ -8145,7 +8130,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B345">
         <f t="shared" si="5"/>
@@ -8154,7 +8139,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B346">
         <f t="shared" si="5"/>
@@ -8163,7 +8148,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B347">
         <f t="shared" si="5"/>
@@ -8172,7 +8157,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B348">
         <f t="shared" si="5"/>
@@ -8181,7 +8166,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B349">
         <f t="shared" si="5"/>
@@ -8190,7 +8175,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B350">
         <f t="shared" si="5"/>
@@ -8199,7 +8184,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B351">
         <f t="shared" si="5"/>
@@ -8208,7 +8193,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B352">
         <f t="shared" si="5"/>
@@ -8217,7 +8202,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B353">
         <f t="shared" si="5"/>
@@ -8226,7 +8211,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B354">
         <f t="shared" si="5"/>
@@ -8235,7 +8220,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B355">
         <f t="shared" si="5"/>
@@ -8244,7 +8229,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B356">
         <f t="shared" si="5"/>
@@ -8253,7 +8238,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B357">
         <f t="shared" si="5"/>
@@ -8262,7 +8247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B358">
         <f t="shared" si="5"/>
@@ -8271,7 +8256,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B359">
         <f t="shared" si="5"/>
@@ -8280,7 +8265,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B360">
         <f t="shared" si="5"/>
@@ -8289,7 +8274,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B361">
         <f t="shared" si="5"/>
@@ -8298,7 +8283,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B362">
         <f t="shared" si="5"/>
@@ -8307,7 +8292,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B363">
         <f t="shared" si="5"/>
@@ -8316,7 +8301,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B364">
         <f t="shared" si="5"/>
@@ -8325,7 +8310,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B365">
         <f t="shared" si="5"/>
@@ -8334,7 +8319,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B366">
         <f t="shared" si="5"/>
@@ -8343,7 +8328,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B367">
         <f t="shared" si="5"/>
@@ -8352,7 +8337,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B368">
         <f t="shared" si="5"/>
@@ -8361,7 +8346,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B369">
         <f t="shared" si="5"/>
@@ -8370,7 +8355,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B370">
         <f t="shared" si="5"/>
@@ -8379,7 +8364,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B371">
         <f t="shared" si="5"/>
@@ -8388,7 +8373,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B372">
         <f t="shared" si="5"/>
@@ -8397,7 +8382,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B373">
         <f t="shared" si="5"/>
@@ -8406,7 +8391,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B374">
         <f t="shared" si="5"/>
@@ -8415,7 +8400,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B375">
         <f t="shared" si="5"/>
@@ -8424,7 +8409,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B376">
         <f t="shared" si="5"/>
@@ -8433,7 +8418,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B377">
         <f t="shared" si="5"/>
@@ -8442,7 +8427,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B378">
         <f t="shared" si="5"/>
@@ -8451,7 +8436,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B379">
         <f t="shared" si="5"/>
@@ -8460,7 +8445,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B380">
         <f t="shared" si="5"/>
@@ -8469,7 +8454,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B381">
         <f t="shared" si="5"/>
@@ -8478,7 +8463,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B382">
         <f t="shared" si="5"/>
@@ -8487,7 +8472,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B383">
         <f t="shared" si="5"/>
@@ -8496,7 +8481,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B384">
         <f t="shared" si="5"/>
@@ -8505,7 +8490,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B385">
         <f t="shared" si="5"/>
@@ -8514,7 +8499,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B386">
         <f t="shared" si="5"/>
@@ -8523,7 +8508,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B387">
         <f t="shared" ref="B387:B450" si="6">$G$2/895</f>
@@ -8532,7 +8517,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B388">
         <f t="shared" si="6"/>
@@ -8541,7 +8526,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B389">
         <f t="shared" si="6"/>
@@ -8550,7 +8535,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B390">
         <f t="shared" si="6"/>
@@ -8559,7 +8544,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B391">
         <f t="shared" si="6"/>
@@ -8568,7 +8553,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B392">
         <f t="shared" si="6"/>
@@ -8577,7 +8562,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B393">
         <f t="shared" si="6"/>
@@ -8586,7 +8571,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B394">
         <f t="shared" si="6"/>
@@ -8595,7 +8580,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B395">
         <f t="shared" si="6"/>
@@ -8604,7 +8589,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B396">
         <f t="shared" si="6"/>
@@ -8613,7 +8598,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B397">
         <f t="shared" si="6"/>
@@ -8622,7 +8607,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B398">
         <f t="shared" si="6"/>
@@ -8631,7 +8616,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B399">
         <f t="shared" si="6"/>
@@ -8640,7 +8625,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B400">
         <f t="shared" si="6"/>
@@ -8649,7 +8634,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B401">
         <f t="shared" si="6"/>
@@ -8658,7 +8643,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B402">
         <f t="shared" si="6"/>
@@ -8667,7 +8652,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B403">
         <f t="shared" si="6"/>
@@ -8676,7 +8661,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B404">
         <f t="shared" si="6"/>
@@ -8685,7 +8670,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B405">
         <f t="shared" si="6"/>
@@ -8694,7 +8679,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B406">
         <f t="shared" si="6"/>
@@ -8703,7 +8688,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B407">
         <f t="shared" si="6"/>
@@ -8712,7 +8697,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B408">
         <f t="shared" si="6"/>
@@ -8721,7 +8706,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B409">
         <f t="shared" si="6"/>
@@ -8730,7 +8715,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B410">
         <f t="shared" si="6"/>
@@ -8739,7 +8724,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B411">
         <f t="shared" si="6"/>
@@ -8748,7 +8733,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B412">
         <f t="shared" si="6"/>
@@ -8757,7 +8742,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B413">
         <f t="shared" si="6"/>
@@ -8766,7 +8751,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B414">
         <f t="shared" si="6"/>
@@ -8775,7 +8760,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B415">
         <f t="shared" si="6"/>
@@ -8784,7 +8769,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B416">
         <f t="shared" si="6"/>
@@ -8793,7 +8778,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B417">
         <f t="shared" si="6"/>
@@ -8802,7 +8787,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B418">
         <f t="shared" si="6"/>
@@ -8811,7 +8796,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B419">
         <f t="shared" si="6"/>
@@ -8820,7 +8805,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B420">
         <f t="shared" si="6"/>
@@ -8829,7 +8814,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B421">
         <f t="shared" si="6"/>
@@ -8838,7 +8823,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B422">
         <f t="shared" si="6"/>
@@ -8847,7 +8832,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B423">
         <f t="shared" si="6"/>
@@ -8856,7 +8841,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B424">
         <f t="shared" si="6"/>
@@ -8865,7 +8850,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B425">
         <f t="shared" si="6"/>
@@ -8874,7 +8859,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B426">
         <f t="shared" si="6"/>
@@ -8883,7 +8868,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B427">
         <f t="shared" si="6"/>
@@ -8892,7 +8877,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B428">
         <f t="shared" si="6"/>
@@ -8901,7 +8886,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B429">
         <f t="shared" si="6"/>
@@ -8910,7 +8895,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B430">
         <f t="shared" si="6"/>
@@ -8919,7 +8904,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B431">
         <f t="shared" si="6"/>
@@ -8928,7 +8913,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B432">
         <f t="shared" si="6"/>
@@ -8937,7 +8922,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B433">
         <f t="shared" si="6"/>
@@ -8946,7 +8931,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B434">
         <f t="shared" si="6"/>
@@ -8955,7 +8940,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B435">
         <f t="shared" si="6"/>
@@ -8964,7 +8949,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B436">
         <f t="shared" si="6"/>
@@ -8973,7 +8958,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B437">
         <f t="shared" si="6"/>
@@ -8982,7 +8967,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B438">
         <f t="shared" si="6"/>
@@ -8991,7 +8976,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B439">
         <f t="shared" si="6"/>
@@ -9000,7 +8985,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B440">
         <f t="shared" si="6"/>
@@ -9009,7 +8994,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B441">
         <f t="shared" si="6"/>
@@ -9018,7 +9003,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B442">
         <f t="shared" si="6"/>
@@ -9027,7 +9012,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B443">
         <f t="shared" si="6"/>
@@ -9036,7 +9021,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B444">
         <f t="shared" si="6"/>
@@ -9045,7 +9030,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B445">
         <f t="shared" si="6"/>
@@ -9054,7 +9039,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B446">
         <f t="shared" si="6"/>
@@ -9063,7 +9048,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B447">
         <f t="shared" si="6"/>
@@ -9072,7 +9057,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B448">
         <f t="shared" si="6"/>
@@ -9081,7 +9066,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B449">
         <f t="shared" si="6"/>
@@ -9090,7 +9075,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B450">
         <f t="shared" si="6"/>
@@ -9099,7 +9084,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B451">
         <f t="shared" ref="B451:B514" si="7">$G$2/895</f>
@@ -9108,7 +9093,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B452">
         <f t="shared" si="7"/>
@@ -9117,7 +9102,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B453">
         <f t="shared" si="7"/>
@@ -9126,7 +9111,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B454">
         <f t="shared" si="7"/>
@@ -9135,7 +9120,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B455">
         <f t="shared" si="7"/>
@@ -9144,7 +9129,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B456">
         <f t="shared" si="7"/>
@@ -9153,7 +9138,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B457">
         <f t="shared" si="7"/>
@@ -9162,7 +9147,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B458">
         <f t="shared" si="7"/>
@@ -9171,7 +9156,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B459">
         <f t="shared" si="7"/>
@@ -9180,7 +9165,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B460">
         <f t="shared" si="7"/>
@@ -9189,7 +9174,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B461">
         <f t="shared" si="7"/>
@@ -9198,7 +9183,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B462">
         <f t="shared" si="7"/>
@@ -9207,7 +9192,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B463">
         <f t="shared" si="7"/>
@@ -9216,7 +9201,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B464">
         <f t="shared" si="7"/>
@@ -9225,7 +9210,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B465">
         <f t="shared" si="7"/>
@@ -9234,7 +9219,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B466">
         <f t="shared" si="7"/>
@@ -9243,7 +9228,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B467">
         <f t="shared" si="7"/>
@@ -9252,7 +9237,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B468">
         <f t="shared" si="7"/>
@@ -9261,7 +9246,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B469">
         <f t="shared" si="7"/>
@@ -9270,7 +9255,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B470">
         <f t="shared" si="7"/>
@@ -9279,7 +9264,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B471">
         <f t="shared" si="7"/>
@@ -9288,7 +9273,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B472">
         <f t="shared" si="7"/>
@@ -9297,7 +9282,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B473">
         <f t="shared" si="7"/>
@@ -9306,7 +9291,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B474">
         <f t="shared" si="7"/>
@@ -9315,7 +9300,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B475">
         <f t="shared" si="7"/>
@@ -9324,7 +9309,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B476">
         <f t="shared" si="7"/>
@@ -9333,7 +9318,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B477">
         <f t="shared" si="7"/>
@@ -9342,7 +9327,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B478">
         <f t="shared" si="7"/>
@@ -9351,7 +9336,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B479">
         <f t="shared" si="7"/>
@@ -9360,7 +9345,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B480">
         <f t="shared" si="7"/>
@@ -9369,7 +9354,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B481">
         <f t="shared" si="7"/>
@@ -9378,7 +9363,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B482">
         <f t="shared" si="7"/>
@@ -9387,7 +9372,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B483">
         <f t="shared" si="7"/>
@@ -9396,7 +9381,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B484">
         <f t="shared" si="7"/>
@@ -9405,7 +9390,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B485">
         <f t="shared" si="7"/>
@@ -9414,7 +9399,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B486">
         <f t="shared" si="7"/>
@@ -9423,7 +9408,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B487">
         <f t="shared" si="7"/>
@@ -9432,7 +9417,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B488">
         <f t="shared" si="7"/>
@@ -9441,7 +9426,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B489">
         <f t="shared" si="7"/>
@@ -9450,7 +9435,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B490">
         <f t="shared" si="7"/>
@@ -9459,7 +9444,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B491">
         <f t="shared" si="7"/>
@@ -9468,7 +9453,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B492">
         <f t="shared" si="7"/>
@@ -9477,7 +9462,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B493">
         <f t="shared" si="7"/>
@@ -9486,7 +9471,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B494">
         <f t="shared" si="7"/>
@@ -9495,7 +9480,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B495">
         <f t="shared" si="7"/>
@@ -9504,7 +9489,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B496">
         <f t="shared" si="7"/>
@@ -9513,7 +9498,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B497">
         <f t="shared" si="7"/>
@@ -9522,7 +9507,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B498">
         <f t="shared" si="7"/>
@@ -9531,7 +9516,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B499">
         <f t="shared" si="7"/>
@@ -9540,7 +9525,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B500">
         <f t="shared" si="7"/>
@@ -9549,7 +9534,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B501">
         <f t="shared" si="7"/>
@@ -9558,7 +9543,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B502">
         <f t="shared" si="7"/>
@@ -9567,7 +9552,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B503">
         <f t="shared" si="7"/>
@@ -9576,7 +9561,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B504">
         <f t="shared" si="7"/>
@@ -9585,7 +9570,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B505">
         <f t="shared" si="7"/>
@@ -9594,7 +9579,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B506">
         <f t="shared" si="7"/>
@@ -9603,7 +9588,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B507">
         <f t="shared" si="7"/>
@@ -9612,7 +9597,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B508">
         <f t="shared" si="7"/>
@@ -9621,7 +9606,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B509">
         <f t="shared" si="7"/>
@@ -9630,7 +9615,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B510">
         <f t="shared" si="7"/>
@@ -9639,7 +9624,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B511">
         <f t="shared" si="7"/>
@@ -9648,7 +9633,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B512">
         <f t="shared" si="7"/>
@@ -9657,7 +9642,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B513">
         <f t="shared" si="7"/>
@@ -9666,7 +9651,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B514">
         <f t="shared" si="7"/>
@@ -9675,7 +9660,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B515">
         <f t="shared" ref="B515:B578" si="8">$G$2/895</f>
@@ -9684,7 +9669,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B516">
         <f t="shared" si="8"/>
@@ -9693,7 +9678,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B517">
         <f t="shared" si="8"/>
@@ -9702,7 +9687,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B518">
         <f t="shared" si="8"/>
@@ -9711,7 +9696,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B519">
         <f t="shared" si="8"/>
@@ -9720,7 +9705,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B520">
         <f t="shared" si="8"/>
@@ -9729,7 +9714,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B521">
         <f t="shared" si="8"/>
@@ -9738,7 +9723,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B522">
         <f t="shared" si="8"/>
@@ -9747,7 +9732,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B523">
         <f t="shared" si="8"/>
@@ -9756,7 +9741,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B524">
         <f t="shared" si="8"/>
@@ -9765,7 +9750,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B525">
         <f t="shared" si="8"/>
@@ -9774,7 +9759,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B526">
         <f t="shared" si="8"/>
@@ -9783,7 +9768,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B527">
         <f t="shared" si="8"/>
@@ -9792,7 +9777,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B528">
         <f t="shared" si="8"/>
@@ -9801,7 +9786,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B529">
         <f t="shared" si="8"/>
@@ -9810,7 +9795,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B530">
         <f t="shared" si="8"/>
@@ -9819,7 +9804,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B531">
         <f t="shared" si="8"/>
@@ -9828,7 +9813,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B532">
         <f t="shared" si="8"/>
@@ -9837,7 +9822,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B533">
         <f t="shared" si="8"/>
@@ -9846,7 +9831,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B534">
         <f t="shared" si="8"/>
@@ -9855,7 +9840,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B535">
         <f t="shared" si="8"/>
@@ -9864,7 +9849,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B536">
         <f t="shared" si="8"/>
@@ -9873,7 +9858,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B537">
         <f t="shared" si="8"/>
@@ -9882,7 +9867,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B538">
         <f t="shared" si="8"/>
@@ -9891,7 +9876,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B539">
         <f t="shared" si="8"/>
@@ -9900,7 +9885,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B540">
         <f t="shared" si="8"/>
@@ -9909,7 +9894,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B541">
         <f t="shared" si="8"/>
@@ -9918,7 +9903,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B542">
         <f t="shared" si="8"/>
@@ -9927,7 +9912,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B543">
         <f t="shared" si="8"/>
@@ -9936,7 +9921,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B544">
         <f t="shared" si="8"/>
@@ -9945,7 +9930,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B545">
         <f t="shared" si="8"/>
@@ -9954,7 +9939,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B546">
         <f t="shared" si="8"/>
@@ -9963,7 +9948,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B547">
         <f t="shared" si="8"/>
@@ -9972,7 +9957,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B548">
         <f t="shared" si="8"/>
@@ -9981,7 +9966,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B549">
         <f t="shared" si="8"/>
@@ -9990,7 +9975,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B550">
         <f t="shared" si="8"/>
@@ -9999,7 +9984,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B551">
         <f t="shared" si="8"/>
@@ -10008,7 +9993,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B552">
         <f t="shared" si="8"/>
@@ -10017,7 +10002,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B553">
         <f t="shared" si="8"/>
@@ -10026,7 +10011,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B554">
         <f t="shared" si="8"/>
@@ -10035,7 +10020,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B555">
         <f t="shared" si="8"/>
@@ -10044,7 +10029,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B556">
         <f t="shared" si="8"/>
@@ -10053,7 +10038,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B557">
         <f t="shared" si="8"/>
@@ -10062,7 +10047,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B558">
         <f t="shared" si="8"/>
@@ -10071,7 +10056,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B559">
         <f t="shared" si="8"/>
@@ -10080,7 +10065,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B560">
         <f t="shared" si="8"/>
@@ -10089,7 +10074,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B561">
         <f t="shared" si="8"/>
@@ -10098,7 +10083,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B562">
         <f t="shared" si="8"/>
@@ -10107,7 +10092,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B563">
         <f t="shared" si="8"/>
@@ -10116,7 +10101,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B564">
         <f t="shared" si="8"/>
@@ -10125,7 +10110,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B565">
         <f t="shared" si="8"/>
@@ -10134,7 +10119,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B566">
         <f t="shared" si="8"/>
@@ -10143,7 +10128,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B567">
         <f t="shared" si="8"/>
@@ -10152,7 +10137,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B568">
         <f t="shared" si="8"/>
@@ -10161,7 +10146,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B569">
         <f t="shared" si="8"/>
@@ -10170,7 +10155,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B570">
         <f t="shared" si="8"/>
@@ -10179,7 +10164,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B571">
         <f t="shared" si="8"/>
@@ -10188,7 +10173,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B572">
         <f t="shared" si="8"/>
@@ -10197,7 +10182,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B573">
         <f t="shared" si="8"/>
@@ -10206,7 +10191,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B574">
         <f t="shared" si="8"/>
@@ -10215,7 +10200,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B575">
         <f t="shared" si="8"/>
@@ -10224,7 +10209,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B576">
         <f t="shared" si="8"/>
@@ -10233,7 +10218,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B577">
         <f t="shared" si="8"/>
@@ -10242,7 +10227,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B578">
         <f t="shared" si="8"/>
@@ -10251,7 +10236,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B579">
         <f t="shared" ref="B579:B642" si="9">$G$2/895</f>
@@ -10260,7 +10245,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B580">
         <f t="shared" si="9"/>
@@ -10269,7 +10254,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B581">
         <f t="shared" si="9"/>
@@ -10278,7 +10263,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B582">
         <f t="shared" si="9"/>
@@ -10287,7 +10272,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B583">
         <f t="shared" si="9"/>
@@ -10296,7 +10281,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B584">
         <f t="shared" si="9"/>
@@ -10305,7 +10290,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B585">
         <f t="shared" si="9"/>
@@ -10314,7 +10299,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B586">
         <f t="shared" si="9"/>
@@ -10323,7 +10308,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B587">
         <f t="shared" si="9"/>
@@ -10332,7 +10317,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B588">
         <f t="shared" si="9"/>
@@ -10341,7 +10326,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B589">
         <f t="shared" si="9"/>
@@ -10350,7 +10335,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B590">
         <f t="shared" si="9"/>
@@ -10359,7 +10344,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B591">
         <f t="shared" si="9"/>
@@ -10368,7 +10353,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B592">
         <f t="shared" si="9"/>
@@ -10377,7 +10362,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B593">
         <f t="shared" si="9"/>
@@ -10386,7 +10371,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B594">
         <f t="shared" si="9"/>
@@ -10395,7 +10380,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B595">
         <f t="shared" si="9"/>
@@ -10404,7 +10389,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B596">
         <f t="shared" si="9"/>
@@ -10413,7 +10398,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B597">
         <f t="shared" si="9"/>
@@ -10422,7 +10407,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B598">
         <f t="shared" si="9"/>
@@ -10431,7 +10416,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B599">
         <f t="shared" si="9"/>
@@ -10440,7 +10425,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B600">
         <f t="shared" si="9"/>
@@ -10449,7 +10434,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B601">
         <f t="shared" si="9"/>
@@ -10458,7 +10443,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B602">
         <f t="shared" si="9"/>
@@ -10467,7 +10452,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B603">
         <f t="shared" si="9"/>
@@ -10476,7 +10461,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B604">
         <f t="shared" si="9"/>
@@ -10485,7 +10470,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B605">
         <f t="shared" si="9"/>
@@ -10494,7 +10479,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B606">
         <f t="shared" si="9"/>
@@ -10503,7 +10488,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B607">
         <f t="shared" si="9"/>
@@ -10512,7 +10497,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B608">
         <f t="shared" si="9"/>
@@ -10521,7 +10506,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B609">
         <f t="shared" si="9"/>
@@ -10530,7 +10515,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B610">
         <f t="shared" si="9"/>
@@ -10539,7 +10524,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B611">
         <f t="shared" si="9"/>
@@ -10548,7 +10533,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B612">
         <f t="shared" si="9"/>
@@ -10557,7 +10542,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B613">
         <f t="shared" si="9"/>
@@ -10566,7 +10551,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B614">
         <f t="shared" si="9"/>
@@ -10575,7 +10560,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B615">
         <f t="shared" si="9"/>
@@ -10584,7 +10569,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B616">
         <f t="shared" si="9"/>
@@ -10593,7 +10578,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B617">
         <f t="shared" si="9"/>
@@ -10602,7 +10587,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B618">
         <f t="shared" si="9"/>
@@ -10611,7 +10596,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B619">
         <f t="shared" si="9"/>
@@ -10620,7 +10605,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B620">
         <f t="shared" si="9"/>
@@ -10629,7 +10614,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B621">
         <f t="shared" si="9"/>
@@ -10638,7 +10623,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B622">
         <f t="shared" si="9"/>
@@ -10647,7 +10632,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B623">
         <f t="shared" si="9"/>
@@ -10656,7 +10641,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B624">
         <f t="shared" si="9"/>
@@ -10665,7 +10650,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B625">
         <f t="shared" si="9"/>
@@ -10674,7 +10659,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B626">
         <f t="shared" si="9"/>
@@ -10683,7 +10668,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B627">
         <f t="shared" si="9"/>
@@ -10692,7 +10677,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B628">
         <f t="shared" si="9"/>
@@ -10701,7 +10686,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B629">
         <f t="shared" si="9"/>
@@ -10710,7 +10695,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B630">
         <f t="shared" si="9"/>
@@ -10719,7 +10704,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B631">
         <f t="shared" si="9"/>
@@ -10728,7 +10713,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B632">
         <f t="shared" si="9"/>
@@ -10737,7 +10722,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B633">
         <f t="shared" si="9"/>
@@ -10746,7 +10731,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B634">
         <f t="shared" si="9"/>
@@ -10755,7 +10740,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B635">
         <f t="shared" si="9"/>
@@ -10764,7 +10749,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B636">
         <f t="shared" si="9"/>
@@ -10773,7 +10758,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B637">
         <f t="shared" si="9"/>
@@ -10782,7 +10767,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B638">
         <f t="shared" si="9"/>
@@ -10791,7 +10776,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B639">
         <f t="shared" si="9"/>
@@ -10800,7 +10785,7 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B640">
         <f t="shared" si="9"/>
@@ -10809,7 +10794,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B641">
         <f t="shared" si="9"/>
@@ -10818,7 +10803,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B642">
         <f t="shared" si="9"/>
@@ -10827,7 +10812,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B643">
         <f t="shared" ref="B643:B706" si="10">$G$2/895</f>
@@ -10836,7 +10821,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B644">
         <f t="shared" si="10"/>
@@ -10845,7 +10830,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B645">
         <f t="shared" si="10"/>
@@ -10854,7 +10839,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B646">
         <f t="shared" si="10"/>
@@ -10863,7 +10848,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B647">
         <f t="shared" si="10"/>
@@ -10872,7 +10857,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B648">
         <f t="shared" si="10"/>
@@ -10881,7 +10866,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B649">
         <f t="shared" si="10"/>
@@ -10890,7 +10875,7 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B650">
         <f t="shared" si="10"/>
@@ -10899,7 +10884,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B651">
         <f t="shared" si="10"/>
@@ -10908,7 +10893,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B652">
         <f t="shared" si="10"/>
@@ -10917,7 +10902,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B653">
         <f t="shared" si="10"/>
@@ -10926,7 +10911,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B654">
         <f t="shared" si="10"/>
@@ -10935,7 +10920,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B655">
         <f t="shared" si="10"/>
@@ -10944,7 +10929,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B656">
         <f t="shared" si="10"/>
@@ -10953,7 +10938,7 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B657">
         <f t="shared" si="10"/>
@@ -10962,7 +10947,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B658">
         <f t="shared" si="10"/>
@@ -10971,7 +10956,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B659">
         <f t="shared" si="10"/>
@@ -10980,7 +10965,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B660">
         <f t="shared" si="10"/>
@@ -10989,7 +10974,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B661">
         <f t="shared" si="10"/>
@@ -10998,7 +10983,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B662">
         <f t="shared" si="10"/>
@@ -11007,7 +10992,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B663">
         <f t="shared" si="10"/>
@@ -11016,7 +11001,7 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B664">
         <f t="shared" si="10"/>
@@ -11025,7 +11010,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B665">
         <f t="shared" si="10"/>
@@ -11034,7 +11019,7 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B666">
         <f t="shared" si="10"/>
@@ -11043,7 +11028,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B667">
         <f t="shared" si="10"/>
@@ -11052,7 +11037,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B668">
         <f t="shared" si="10"/>
@@ -11061,7 +11046,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B669">
         <f t="shared" si="10"/>
@@ -11070,7 +11055,7 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B670">
         <f t="shared" si="10"/>
@@ -11079,7 +11064,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B671">
         <f t="shared" si="10"/>
@@ -11088,7 +11073,7 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B672">
         <f t="shared" si="10"/>
@@ -11097,7 +11082,7 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B673">
         <f t="shared" si="10"/>
@@ -11106,7 +11091,7 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B674">
         <f t="shared" si="10"/>
@@ -11115,7 +11100,7 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B675">
         <f t="shared" si="10"/>
@@ -11124,7 +11109,7 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B676">
         <f t="shared" si="10"/>
@@ -11133,7 +11118,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B677">
         <f t="shared" si="10"/>
@@ -11142,7 +11127,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B678">
         <f t="shared" si="10"/>
@@ -11151,7 +11136,7 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B679">
         <f t="shared" si="10"/>
@@ -11160,7 +11145,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B680">
         <f t="shared" si="10"/>
@@ -11169,7 +11154,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B681">
         <f t="shared" si="10"/>
@@ -11178,7 +11163,7 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B682">
         <f t="shared" si="10"/>
@@ -11187,7 +11172,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B683">
         <f t="shared" si="10"/>
@@ -11196,7 +11181,7 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B684">
         <f t="shared" si="10"/>
@@ -11205,7 +11190,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B685">
         <f t="shared" si="10"/>
@@ -11214,7 +11199,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B686">
         <f t="shared" si="10"/>
@@ -11223,7 +11208,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B687">
         <f t="shared" si="10"/>
@@ -11232,7 +11217,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B688">
         <f t="shared" si="10"/>
@@ -11241,7 +11226,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B689">
         <f t="shared" si="10"/>
@@ -11250,7 +11235,7 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B690">
         <f t="shared" si="10"/>
@@ -11259,7 +11244,7 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B691">
         <f t="shared" si="10"/>
@@ -11268,7 +11253,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B692">
         <f t="shared" si="10"/>
@@ -11277,7 +11262,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B693">
         <f t="shared" si="10"/>
@@ -11286,7 +11271,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B694">
         <f t="shared" si="10"/>
@@ -11295,7 +11280,7 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B695">
         <f t="shared" si="10"/>
@@ -11304,7 +11289,7 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B696">
         <f t="shared" si="10"/>
@@ -11313,7 +11298,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B697">
         <f t="shared" si="10"/>
@@ -11322,7 +11307,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B698">
         <f t="shared" si="10"/>
@@ -11331,7 +11316,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B699">
         <f t="shared" si="10"/>
@@ -11340,7 +11325,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B700">
         <f t="shared" si="10"/>
@@ -11349,7 +11334,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B701">
         <f t="shared" si="10"/>
@@ -11358,7 +11343,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B702">
         <f t="shared" si="10"/>
@@ -11367,7 +11352,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B703">
         <f t="shared" si="10"/>
@@ -11376,7 +11361,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B704">
         <f t="shared" si="10"/>
@@ -11385,7 +11370,7 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B705">
         <f t="shared" si="10"/>
@@ -11394,7 +11379,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B706">
         <f t="shared" si="10"/>
@@ -11403,7 +11388,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B707">
         <f t="shared" ref="B707:B770" si="11">$G$2/895</f>
@@ -11412,7 +11397,7 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B708">
         <f t="shared" si="11"/>
@@ -11421,7 +11406,7 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B709">
         <f t="shared" si="11"/>
@@ -11430,7 +11415,7 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B710">
         <f t="shared" si="11"/>
@@ -11439,7 +11424,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B711">
         <f t="shared" si="11"/>
@@ -11448,7 +11433,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B712">
         <f t="shared" si="11"/>
@@ -11457,7 +11442,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B713">
         <f t="shared" si="11"/>
@@ -11466,7 +11451,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B714">
         <f t="shared" si="11"/>
@@ -11475,7 +11460,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B715">
         <f t="shared" si="11"/>
@@ -11484,7 +11469,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B716">
         <f t="shared" si="11"/>
@@ -11493,7 +11478,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B717">
         <f t="shared" si="11"/>
@@ -11502,7 +11487,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B718">
         <f t="shared" si="11"/>
@@ -11511,7 +11496,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B719">
         <f t="shared" si="11"/>
@@ -11520,7 +11505,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B720">
         <f t="shared" si="11"/>
@@ -11529,7 +11514,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B721">
         <f t="shared" si="11"/>
@@ -11538,7 +11523,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B722">
         <f t="shared" si="11"/>
@@ -11547,7 +11532,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B723">
         <f t="shared" si="11"/>
@@ -11556,7 +11541,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B724">
         <f t="shared" si="11"/>
@@ -11565,7 +11550,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B725">
         <f t="shared" si="11"/>
@@ -11574,7 +11559,7 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B726">
         <f t="shared" si="11"/>
@@ -11583,7 +11568,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B727">
         <f t="shared" si="11"/>
@@ -11592,7 +11577,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B728">
         <f t="shared" si="11"/>
@@ -11601,7 +11586,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B729">
         <f t="shared" si="11"/>
@@ -11610,7 +11595,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B730">
         <f t="shared" si="11"/>
@@ -11619,7 +11604,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B731">
         <f t="shared" si="11"/>
@@ -11628,7 +11613,7 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B732">
         <f t="shared" si="11"/>
@@ -11637,7 +11622,7 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B733">
         <f t="shared" si="11"/>
@@ -11646,7 +11631,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B734">
         <f t="shared" si="11"/>
@@ -11655,7 +11640,7 @@
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B735">
         <f t="shared" si="11"/>
@@ -11664,7 +11649,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B736">
         <f t="shared" si="11"/>
@@ -11673,7 +11658,7 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B737">
         <f t="shared" si="11"/>
@@ -11682,7 +11667,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B738">
         <f t="shared" si="11"/>
@@ -11691,7 +11676,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B739">
         <f t="shared" si="11"/>
@@ -11700,7 +11685,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B740">
         <f t="shared" si="11"/>
@@ -11709,7 +11694,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B741">
         <f t="shared" si="11"/>
@@ -11718,7 +11703,7 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B742">
         <f t="shared" si="11"/>
@@ -11727,7 +11712,7 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B743">
         <f t="shared" si="11"/>
@@ -11736,7 +11721,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B744">
         <f t="shared" si="11"/>
@@ -11745,7 +11730,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B745">
         <f t="shared" si="11"/>
@@ -11754,7 +11739,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B746">
         <f t="shared" si="11"/>
@@ -11763,7 +11748,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B747">
         <f t="shared" si="11"/>
@@ -11772,7 +11757,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B748">
         <f t="shared" si="11"/>
@@ -11781,7 +11766,7 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B749">
         <f t="shared" si="11"/>
@@ -11790,7 +11775,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B750">
         <f t="shared" si="11"/>
@@ -11799,7 +11784,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B751">
         <f t="shared" si="11"/>
@@ -11808,7 +11793,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B752">
         <f t="shared" si="11"/>
@@ -11817,7 +11802,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B753">
         <f t="shared" si="11"/>
@@ -11826,7 +11811,7 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B754">
         <f t="shared" si="11"/>
@@ -11835,7 +11820,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B755">
         <f t="shared" si="11"/>
@@ -11844,7 +11829,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B756">
         <f t="shared" si="11"/>
@@ -11853,7 +11838,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B757">
         <f t="shared" si="11"/>
@@ -11862,7 +11847,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B758">
         <f t="shared" si="11"/>
@@ -11871,7 +11856,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B759">
         <f t="shared" si="11"/>
@@ -11880,7 +11865,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B760">
         <f t="shared" si="11"/>
@@ -11889,7 +11874,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B761">
         <f t="shared" si="11"/>
@@ -11898,7 +11883,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B762">
         <f t="shared" si="11"/>
@@ -11907,7 +11892,7 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B763">
         <f t="shared" si="11"/>
@@ -11916,7 +11901,7 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B764">
         <f t="shared" si="11"/>
@@ -11925,7 +11910,7 @@
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B765">
         <f t="shared" si="11"/>
@@ -11934,7 +11919,7 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B766">
         <f t="shared" si="11"/>
@@ -11943,7 +11928,7 @@
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B767">
         <f t="shared" si="11"/>
@@ -11952,7 +11937,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B768">
         <f t="shared" si="11"/>
@@ -11961,7 +11946,7 @@
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B769">
         <f t="shared" si="11"/>
@@ -11970,7 +11955,7 @@
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B770">
         <f t="shared" si="11"/>
@@ -11979,7 +11964,7 @@
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B771">
         <f t="shared" ref="B771:B834" si="12">$G$2/895</f>
@@ -11988,7 +11973,7 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B772">
         <f t="shared" si="12"/>
@@ -11997,7 +11982,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B773">
         <f t="shared" si="12"/>
@@ -12006,7 +11991,7 @@
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B774">
         <f t="shared" si="12"/>
@@ -12015,7 +12000,7 @@
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B775">
         <f t="shared" si="12"/>
@@ -12024,7 +12009,7 @@
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B776">
         <f t="shared" si="12"/>
@@ -12033,7 +12018,7 @@
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B777">
         <f t="shared" si="12"/>
@@ -12042,7 +12027,7 @@
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B778">
         <f t="shared" si="12"/>
@@ -12051,7 +12036,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B779">
         <f t="shared" si="12"/>
@@ -12060,7 +12045,7 @@
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B780">
         <f t="shared" si="12"/>
@@ -12069,7 +12054,7 @@
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B781">
         <f t="shared" si="12"/>
@@ -12078,7 +12063,7 @@
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B782">
         <f t="shared" si="12"/>
@@ -12087,7 +12072,7 @@
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B783">
         <f t="shared" si="12"/>
@@ -12096,7 +12081,7 @@
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B784">
         <f t="shared" si="12"/>
@@ -12105,7 +12090,7 @@
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B785">
         <f t="shared" si="12"/>
@@ -12114,7 +12099,7 @@
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B786">
         <f t="shared" si="12"/>
@@ -12123,7 +12108,7 @@
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B787">
         <f t="shared" si="12"/>
@@ -12132,7 +12117,7 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B788">
         <f t="shared" si="12"/>
@@ -12141,7 +12126,7 @@
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B789">
         <f t="shared" si="12"/>
@@ -12150,7 +12135,7 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B790">
         <f t="shared" si="12"/>
@@ -12159,7 +12144,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B791">
         <f t="shared" si="12"/>
@@ -12168,7 +12153,7 @@
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B792">
         <f t="shared" si="12"/>
@@ -12177,7 +12162,7 @@
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B793">
         <f t="shared" si="12"/>
@@ -12186,7 +12171,7 @@
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B794">
         <f t="shared" si="12"/>
@@ -12195,7 +12180,7 @@
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B795">
         <f t="shared" si="12"/>
@@ -12204,7 +12189,7 @@
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B796">
         <f t="shared" si="12"/>
@@ -12213,7 +12198,7 @@
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B797">
         <f t="shared" si="12"/>
@@ -12222,7 +12207,7 @@
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B798">
         <f t="shared" si="12"/>
@@ -12231,7 +12216,7 @@
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B799">
         <f t="shared" si="12"/>
@@ -12240,7 +12225,7 @@
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B800">
         <f t="shared" si="12"/>
@@ -12249,7 +12234,7 @@
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B801">
         <f t="shared" si="12"/>
@@ -12258,7 +12243,7 @@
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B802">
         <f t="shared" si="12"/>
@@ -12267,7 +12252,7 @@
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B803">
         <f t="shared" si="12"/>
@@ -12276,7 +12261,7 @@
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B804">
         <f t="shared" si="12"/>
@@ -12285,7 +12270,7 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B805">
         <f t="shared" si="12"/>
@@ -12294,7 +12279,7 @@
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B806">
         <f t="shared" si="12"/>
@@ -12303,7 +12288,7 @@
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B807">
         <f t="shared" si="12"/>
@@ -12312,7 +12297,7 @@
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B808">
         <f t="shared" si="12"/>
@@ -12321,7 +12306,7 @@
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B809">
         <f t="shared" si="12"/>
@@ -12330,7 +12315,7 @@
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B810">
         <f t="shared" si="12"/>
@@ -12339,7 +12324,7 @@
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B811">
         <f t="shared" si="12"/>
@@ -12348,7 +12333,7 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B812">
         <f t="shared" si="12"/>
@@ -12357,7 +12342,7 @@
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B813">
         <f t="shared" si="12"/>
@@ -12366,7 +12351,7 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B814">
         <f t="shared" si="12"/>
@@ -12375,7 +12360,7 @@
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B815">
         <f t="shared" si="12"/>
@@ -12384,7 +12369,7 @@
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B816">
         <f t="shared" si="12"/>
@@ -12393,7 +12378,7 @@
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B817">
         <f t="shared" si="12"/>
@@ -12402,7 +12387,7 @@
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B818">
         <f t="shared" si="12"/>
@@ -12411,7 +12396,7 @@
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B819">
         <f t="shared" si="12"/>
@@ -12420,7 +12405,7 @@
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B820">
         <f t="shared" si="12"/>
@@ -12429,7 +12414,7 @@
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B821">
         <f t="shared" si="12"/>
@@ -12438,7 +12423,7 @@
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B822">
         <f t="shared" si="12"/>
@@ -12447,7 +12432,7 @@
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B823">
         <f t="shared" si="12"/>
@@ -12456,7 +12441,7 @@
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B824">
         <f t="shared" si="12"/>
@@ -12465,7 +12450,7 @@
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B825">
         <f t="shared" si="12"/>
@@ -12474,7 +12459,7 @@
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B826">
         <f t="shared" si="12"/>
@@ -12483,7 +12468,7 @@
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B827">
         <f t="shared" si="12"/>
@@ -12492,7 +12477,7 @@
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B828">
         <f t="shared" si="12"/>
@@ -12501,7 +12486,7 @@
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B829">
         <f t="shared" si="12"/>
@@ -12510,7 +12495,7 @@
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B830">
         <f t="shared" si="12"/>
@@ -12519,7 +12504,7 @@
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B831">
         <f t="shared" si="12"/>
@@ -12528,7 +12513,7 @@
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B832">
         <f t="shared" si="12"/>
@@ -12537,7 +12522,7 @@
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B833">
         <f t="shared" si="12"/>
@@ -12546,7 +12531,7 @@
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B834">
         <f t="shared" si="12"/>
@@ -12555,7 +12540,7 @@
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B835">
         <f t="shared" ref="B835:B896" si="13">$G$2/895</f>
@@ -12564,7 +12549,7 @@
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B836">
         <f t="shared" si="13"/>
@@ -12573,7 +12558,7 @@
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B837">
         <f t="shared" si="13"/>
@@ -12582,7 +12567,7 @@
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B838">
         <f t="shared" si="13"/>
@@ -12591,7 +12576,7 @@
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B839">
         <f t="shared" si="13"/>
@@ -12600,7 +12585,7 @@
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B840">
         <f t="shared" si="13"/>
@@ -12609,7 +12594,7 @@
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B841">
         <f t="shared" si="13"/>
@@ -12618,7 +12603,7 @@
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B842">
         <f t="shared" si="13"/>
@@ -12627,7 +12612,7 @@
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B843">
         <f t="shared" si="13"/>
@@ -12636,7 +12621,7 @@
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B844">
         <f t="shared" si="13"/>
@@ -12645,7 +12630,7 @@
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B845">
         <f t="shared" si="13"/>
@@ -12654,7 +12639,7 @@
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B846">
         <f t="shared" si="13"/>
@@ -12663,7 +12648,7 @@
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B847">
         <f t="shared" si="13"/>
@@ -12672,7 +12657,7 @@
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B848">
         <f t="shared" si="13"/>
@@ -12681,7 +12666,7 @@
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B849">
         <f t="shared" si="13"/>
@@ -12690,7 +12675,7 @@
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B850">
         <f t="shared" si="13"/>
@@ -12699,7 +12684,7 @@
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B851">
         <f t="shared" si="13"/>
@@ -12708,7 +12693,7 @@
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B852">
         <f t="shared" si="13"/>
@@ -12717,7 +12702,7 @@
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B853">
         <f t="shared" si="13"/>
@@ -12726,7 +12711,7 @@
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B854">
         <f t="shared" si="13"/>
@@ -12735,7 +12720,7 @@
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B855">
         <f t="shared" si="13"/>
@@ -12744,7 +12729,7 @@
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B856">
         <f t="shared" si="13"/>
@@ -12753,7 +12738,7 @@
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B857">
         <f t="shared" si="13"/>
@@ -12762,7 +12747,7 @@
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B858">
         <f t="shared" si="13"/>
@@ -12771,7 +12756,7 @@
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B859">
         <f t="shared" si="13"/>
@@ -12780,7 +12765,7 @@
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B860">
         <f t="shared" si="13"/>
@@ -12789,7 +12774,7 @@
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B861">
         <f t="shared" si="13"/>
@@ -12798,7 +12783,7 @@
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B862">
         <f t="shared" si="13"/>
@@ -12807,7 +12792,7 @@
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B863">
         <f t="shared" si="13"/>
@@ -12816,7 +12801,7 @@
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B864">
         <f t="shared" si="13"/>
@@ -12825,7 +12810,7 @@
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B865">
         <f t="shared" si="13"/>
@@ -12834,7 +12819,7 @@
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B866">
         <f t="shared" si="13"/>
@@ -12843,7 +12828,7 @@
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B867">
         <f t="shared" si="13"/>
@@ -12852,7 +12837,7 @@
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B868">
         <f t="shared" si="13"/>
@@ -12861,7 +12846,7 @@
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B869">
         <f t="shared" si="13"/>
@@ -12870,7 +12855,7 @@
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B870">
         <f t="shared" si="13"/>
@@ -12879,7 +12864,7 @@
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B871">
         <f t="shared" si="13"/>
@@ -12888,7 +12873,7 @@
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B872">
         <f t="shared" si="13"/>
@@ -12897,7 +12882,7 @@
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B873">
         <f t="shared" si="13"/>
@@ -12906,7 +12891,7 @@
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B874">
         <f t="shared" si="13"/>
@@ -12915,7 +12900,7 @@
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B875">
         <f t="shared" si="13"/>
@@ -12924,7 +12909,7 @@
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B876">
         <f t="shared" si="13"/>
@@ -12933,7 +12918,7 @@
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B877">
         <f t="shared" si="13"/>
@@ -12942,7 +12927,7 @@
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B878">
         <f t="shared" si="13"/>
@@ -12951,7 +12936,7 @@
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B879">
         <f t="shared" si="13"/>
@@ -12960,7 +12945,7 @@
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B880">
         <f t="shared" si="13"/>
@@ -12969,7 +12954,7 @@
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B881">
         <f t="shared" si="13"/>
@@ -12978,7 +12963,7 @@
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B882">
         <f t="shared" si="13"/>
@@ -12987,7 +12972,7 @@
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B883">
         <f t="shared" si="13"/>
@@ -12996,7 +12981,7 @@
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B884">
         <f t="shared" si="13"/>
@@ -13005,7 +12990,7 @@
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B885">
         <f t="shared" si="13"/>
@@ -13014,7 +12999,7 @@
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B886">
         <f t="shared" si="13"/>
@@ -13023,7 +13008,7 @@
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B887">
         <f t="shared" si="13"/>
@@ -13032,7 +13017,7 @@
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B888">
         <f t="shared" si="13"/>
@@ -13041,7 +13026,7 @@
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B889">
         <f t="shared" si="13"/>
@@ -13050,7 +13035,7 @@
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B890">
         <f t="shared" si="13"/>
@@ -13059,7 +13044,7 @@
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B891">
         <f t="shared" si="13"/>
@@ -13068,7 +13053,7 @@
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B892">
         <f t="shared" si="13"/>
@@ -13077,7 +13062,7 @@
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B893">
         <f t="shared" si="13"/>
@@ -13086,7 +13071,7 @@
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B894">
         <f t="shared" si="13"/>
@@ -13095,7 +13080,7 @@
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B895">
         <f t="shared" si="13"/>
@@ -13104,7 +13089,7 @@
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B896">
         <f t="shared" si="13"/>

--- a/资讯媒体分档.xlsx
+++ b/资讯媒体分档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996">
   <si>
     <t>媒体名单</t>
   </si>
@@ -85,7 +85,13 @@
     <t>中央纪委监察部</t>
   </si>
   <si>
+    <t>http://www.ccdi.gov.cn/yw/</t>
+  </si>
+  <si>
     <t>环保总局</t>
+  </si>
+  <si>
+    <t>http://www.zhb.gov.cn/</t>
   </si>
   <si>
     <t>国家电力监管委员会</t>
@@ -3006,10 +3012,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3056,29 +3062,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3086,7 +3091,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3101,7 +3106,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3116,7 +3121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3139,39 +3144,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3186,6 +3169,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3206,13 +3212,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3224,7 +3272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3242,6 +3296,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3254,37 +3332,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3296,19 +3362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3326,61 +3380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3409,36 +3415,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3463,17 +3439,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3492,17 +3492,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3514,10 +3520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3526,16 +3532,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3544,115 +3550,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4044,7 +4050,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4217,7 +4223,7 @@
         <v>0.016</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -4225,38 +4231,44 @@
         <f t="shared" si="0"/>
         <v>0.016</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>0.016</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>0.016</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>0.016</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4266,6 +4278,8 @@
     <hyperlink ref="C21" r:id="rId3" display="http://www.nea.gov.cn/xwfb/index.htm"/>
     <hyperlink ref="C20" r:id="rId4" display="http://www.gov.cn/xwfb/index.htm"/>
     <hyperlink ref="C2" r:id="rId5" display="http://www.csrc.gov.cn/pub/newsite/zjhxwfb/"/>
+    <hyperlink ref="C19" r:id="rId6" display="http://www.zhb.gov.cn/"/>
+    <hyperlink ref="C18" r:id="rId7" display="http://www.ccdi.gov.cn/yw/" tooltip="http://www.ccdi.gov.cn/yw/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -4299,7 +4313,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5">
         <f>$G$2/22</f>
@@ -4314,7 +4328,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B23" si="0">$G$2/22</f>
@@ -4323,7 +4337,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
@@ -4332,7 +4346,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -4341,7 +4355,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -4350,7 +4364,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -4359,7 +4373,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
@@ -4368,7 +4382,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
@@ -4377,7 +4391,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
@@ -4386,7 +4400,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
@@ -4395,7 +4409,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
@@ -4404,7 +4418,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
@@ -4413,7 +4427,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
@@ -4422,7 +4436,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
@@ -4431,7 +4445,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
@@ -4440,7 +4454,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
@@ -4449,7 +4463,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
@@ -4458,7 +4472,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
@@ -4467,7 +4481,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
@@ -4476,7 +4490,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
@@ -4485,7 +4499,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
@@ -4494,7 +4508,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
@@ -4533,7 +4547,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5">
         <f>$G$2/52</f>
@@ -4548,7 +4562,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B53" si="0">$G$2/52</f>
@@ -4557,7 +4571,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
@@ -4566,7 +4580,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -4575,7 +4589,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -4584,7 +4598,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -4593,7 +4607,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
@@ -4602,7 +4616,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
@@ -4611,7 +4625,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
@@ -4620,7 +4634,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
@@ -4629,7 +4643,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
@@ -4638,7 +4652,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
@@ -4647,7 +4661,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
@@ -4656,7 +4670,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
@@ -4665,7 +4679,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
@@ -4674,7 +4688,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
@@ -4683,7 +4697,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
@@ -4692,7 +4706,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
@@ -4701,7 +4715,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
@@ -4710,7 +4724,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
@@ -4719,7 +4733,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
@@ -4728,7 +4742,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
@@ -4737,7 +4751,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
@@ -4746,7 +4760,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="0"/>
@@ -4755,7 +4769,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" s="5">
         <f t="shared" si="0"/>
@@ -4764,7 +4778,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="0"/>
@@ -4773,7 +4787,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5">
         <f t="shared" si="0"/>
@@ -4782,7 +4796,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="0"/>
@@ -4791,7 +4805,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" si="0"/>
@@ -4800,7 +4814,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B31" s="5">
         <f t="shared" si="0"/>
@@ -4809,7 +4823,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B32" s="5">
         <f t="shared" si="0"/>
@@ -4818,7 +4832,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" si="0"/>
@@ -4827,7 +4841,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B34" s="5">
         <f t="shared" si="0"/>
@@ -4836,7 +4850,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B35" s="5">
         <f t="shared" si="0"/>
@@ -4845,7 +4859,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B36" s="5">
         <f t="shared" si="0"/>
@@ -4854,7 +4868,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" s="5">
         <f t="shared" si="0"/>
@@ -4863,7 +4877,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B38" s="5">
         <f t="shared" si="0"/>
@@ -4872,7 +4886,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5">
         <f t="shared" si="0"/>
@@ -4881,7 +4895,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="5">
         <f t="shared" si="0"/>
@@ -4890,7 +4904,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" si="0"/>
@@ -4899,7 +4913,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="5">
         <f t="shared" si="0"/>
@@ -4908,7 +4922,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5">
         <f t="shared" si="0"/>
@@ -4917,7 +4931,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="5">
         <f t="shared" si="0"/>
@@ -4926,7 +4940,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="5">
         <f t="shared" si="0"/>
@@ -4935,7 +4949,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="5">
         <f t="shared" si="0"/>
@@ -4944,7 +4958,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="5">
         <f t="shared" si="0"/>
@@ -4953,7 +4967,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="5">
         <f t="shared" si="0"/>
@@ -4962,7 +4976,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="5">
         <f t="shared" si="0"/>
@@ -4971,7 +4985,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="5">
         <f t="shared" si="0"/>
@@ -4980,7 +4994,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="5">
         <f t="shared" si="0"/>
@@ -4989,7 +5003,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="5">
         <f t="shared" si="0"/>
@@ -4998,7 +5012,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="5">
         <f t="shared" si="0"/>
@@ -5037,7 +5051,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <f>$G$2/895</f>
@@ -5052,7 +5066,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">$G$2/895</f>
@@ -5061,7 +5075,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -5070,7 +5084,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -5079,7 +5093,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -5088,7 +5102,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -5097,7 +5111,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -5106,7 +5120,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -5115,7 +5129,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -5124,7 +5138,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -5133,7 +5147,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -5142,7 +5156,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -5151,7 +5165,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -5160,7 +5174,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -5169,7 +5183,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -5178,7 +5192,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -5187,7 +5201,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -5196,7 +5210,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -5205,7 +5219,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -5214,7 +5228,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -5223,7 +5237,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -5232,7 +5246,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -5241,7 +5255,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -5250,7 +5264,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -5259,7 +5273,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -5268,7 +5282,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -5277,7 +5291,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -5286,7 +5300,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -5295,7 +5309,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -5304,7 +5318,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -5313,7 +5327,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -5322,7 +5336,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -5331,7 +5345,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -5340,7 +5354,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -5349,7 +5363,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -5358,7 +5372,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -5367,7 +5381,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -5376,7 +5390,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -5385,7 +5399,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -5394,7 +5408,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -5403,7 +5417,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -5412,7 +5426,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -5421,7 +5435,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -5430,7 +5444,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -5439,7 +5453,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -5448,7 +5462,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -5457,7 +5471,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -5466,7 +5480,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -5475,7 +5489,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -5484,7 +5498,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -5493,7 +5507,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -5502,7 +5516,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -5511,7 +5525,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
@@ -5520,7 +5534,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
@@ -5529,7 +5543,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
@@ -5538,7 +5552,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
@@ -5547,7 +5561,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
@@ -5556,7 +5570,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
@@ -5565,7 +5579,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
@@ -5574,7 +5588,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
@@ -5583,7 +5597,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -5592,7 +5606,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
@@ -5601,7 +5615,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
@@ -5610,7 +5624,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
@@ -5619,7 +5633,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
@@ -5628,7 +5642,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="1">$G$2/895</f>
@@ -5637,7 +5651,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
@@ -5646,7 +5660,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
@@ -5655,7 +5669,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
@@ -5664,7 +5678,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
@@ -5673,7 +5687,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
@@ -5682,7 +5696,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
@@ -5691,7 +5705,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
@@ -5700,7 +5714,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
@@ -5709,7 +5723,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
@@ -5718,7 +5732,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
@@ -5727,7 +5741,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
@@ -5736,7 +5750,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
@@ -5745,7 +5759,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
@@ -5754,7 +5768,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
@@ -5763,7 +5777,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
@@ -5772,7 +5786,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
@@ -5781,7 +5795,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
@@ -5790,7 +5804,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
@@ -5799,7 +5813,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
@@ -5808,7 +5822,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
@@ -5817,7 +5831,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
@@ -5826,7 +5840,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
@@ -5835,7 +5849,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
@@ -5844,7 +5858,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
@@ -5853,7 +5867,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
@@ -5862,7 +5876,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
@@ -5871,7 +5885,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
@@ -5880,7 +5894,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
@@ -5889,7 +5903,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
@@ -5898,7 +5912,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
@@ -5907,7 +5921,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
@@ -5916,7 +5930,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
@@ -5925,7 +5939,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
@@ -5934,7 +5948,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
@@ -5943,7 +5957,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
@@ -5952,7 +5966,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
@@ -5961,7 +5975,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
@@ -5970,7 +5984,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
@@ -5979,7 +5993,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
@@ -5988,7 +6002,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
@@ -5997,7 +6011,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
@@ -6006,7 +6020,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
@@ -6015,7 +6029,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
@@ -6024,7 +6038,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
@@ -6033,7 +6047,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
@@ -6042,7 +6056,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
@@ -6051,7 +6065,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
@@ -6060,7 +6074,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
@@ -6069,7 +6083,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
@@ -6078,7 +6092,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
@@ -6087,7 +6101,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
@@ -6096,7 +6110,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
@@ -6105,7 +6119,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
@@ -6114,7 +6128,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
@@ -6123,7 +6137,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
@@ -6132,7 +6146,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
@@ -6141,7 +6155,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
@@ -6150,7 +6164,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
@@ -6159,7 +6173,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
@@ -6168,7 +6182,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
@@ -6177,7 +6191,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
@@ -6186,7 +6200,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
@@ -6195,7 +6209,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
@@ -6204,7 +6218,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="2">$G$2/895</f>
@@ -6213,7 +6227,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
@@ -6222,7 +6236,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
@@ -6231,7 +6245,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
@@ -6240,7 +6254,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
@@ -6249,7 +6263,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
@@ -6258,7 +6272,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
@@ -6267,7 +6281,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
@@ -6276,7 +6290,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
@@ -6285,7 +6299,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
@@ -6294,7 +6308,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
@@ -6303,7 +6317,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
@@ -6312,7 +6326,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
@@ -6321,7 +6335,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
@@ -6330,7 +6344,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
@@ -6339,7 +6353,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
@@ -6348,7 +6362,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
@@ -6357,7 +6371,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
@@ -6366,7 +6380,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
@@ -6375,7 +6389,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
@@ -6384,7 +6398,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
@@ -6393,7 +6407,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
@@ -6402,7 +6416,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
@@ -6411,7 +6425,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
@@ -6420,7 +6434,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
@@ -6429,7 +6443,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
@@ -6438,7 +6452,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
@@ -6447,7 +6461,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
@@ -6456,7 +6470,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
@@ -6465,7 +6479,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
@@ -6474,7 +6488,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
@@ -6483,7 +6497,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
@@ -6492,7 +6506,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
@@ -6501,7 +6515,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
@@ -6510,7 +6524,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
@@ -6519,7 +6533,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
@@ -6528,7 +6542,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
@@ -6537,7 +6551,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
@@ -6546,7 +6560,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
@@ -6555,7 +6569,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
@@ -6564,7 +6578,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
@@ -6573,7 +6587,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
@@ -6582,7 +6596,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
@@ -6591,7 +6605,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
@@ -6600,7 +6614,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
@@ -6609,7 +6623,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
@@ -6618,7 +6632,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
@@ -6627,7 +6641,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
@@ -6636,7 +6650,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
@@ -6645,7 +6659,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
@@ -6654,7 +6668,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
@@ -6663,7 +6677,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
@@ -6672,7 +6686,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
@@ -6681,7 +6695,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B184">
         <f t="shared" si="2"/>
@@ -6690,7 +6704,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
@@ -6699,7 +6713,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B186">
         <f t="shared" si="2"/>
@@ -6708,7 +6722,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B187">
         <f t="shared" si="2"/>
@@ -6717,7 +6731,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B188">
         <f t="shared" si="2"/>
@@ -6726,7 +6740,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B189">
         <f t="shared" si="2"/>
@@ -6735,7 +6749,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
@@ -6744,7 +6758,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
@@ -6753,7 +6767,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B192">
         <f t="shared" si="2"/>
@@ -6762,7 +6776,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B193">
         <f t="shared" si="2"/>
@@ -6771,7 +6785,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B194">
         <f t="shared" si="2"/>
@@ -6780,7 +6794,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B195">
         <f t="shared" ref="B195:B258" si="3">$G$2/895</f>
@@ -6789,7 +6803,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B196">
         <f t="shared" si="3"/>
@@ -6798,7 +6812,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B197">
         <f t="shared" si="3"/>
@@ -6807,7 +6821,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
@@ -6816,7 +6830,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
@@ -6825,7 +6839,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
@@ -6834,7 +6848,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
@@ -6843,7 +6857,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
@@ -6852,7 +6866,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
@@ -6861,7 +6875,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
@@ -6870,7 +6884,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
@@ -6879,7 +6893,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
@@ -6888,7 +6902,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>
@@ -6897,7 +6911,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B208">
         <f t="shared" si="3"/>
@@ -6906,7 +6920,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B209">
         <f t="shared" si="3"/>
@@ -6915,7 +6929,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B210">
         <f t="shared" si="3"/>
@@ -6924,7 +6938,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B211">
         <f t="shared" si="3"/>
@@ -6933,7 +6947,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B212">
         <f t="shared" si="3"/>
@@ -6942,7 +6956,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B213">
         <f t="shared" si="3"/>
@@ -6951,7 +6965,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B214">
         <f t="shared" si="3"/>
@@ -6960,7 +6974,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B215">
         <f t="shared" si="3"/>
@@ -6969,7 +6983,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B216">
         <f t="shared" si="3"/>
@@ -6978,7 +6992,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B217">
         <f t="shared" si="3"/>
@@ -6987,7 +7001,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B218">
         <f t="shared" si="3"/>
@@ -6996,7 +7010,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B219">
         <f t="shared" si="3"/>
@@ -7005,7 +7019,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B220">
         <f t="shared" si="3"/>
@@ -7014,7 +7028,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B221">
         <f t="shared" si="3"/>
@@ -7023,7 +7037,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B222">
         <f t="shared" si="3"/>
@@ -7032,7 +7046,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B223">
         <f t="shared" si="3"/>
@@ -7041,7 +7055,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B224">
         <f t="shared" si="3"/>
@@ -7050,7 +7064,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B225">
         <f t="shared" si="3"/>
@@ -7059,7 +7073,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B226">
         <f t="shared" si="3"/>
@@ -7068,7 +7082,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B227">
         <f t="shared" si="3"/>
@@ -7077,7 +7091,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B228">
         <f t="shared" si="3"/>
@@ -7086,7 +7100,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B229">
         <f t="shared" si="3"/>
@@ -7095,7 +7109,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B230">
         <f t="shared" si="3"/>
@@ -7104,7 +7118,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B231">
         <f t="shared" si="3"/>
@@ -7113,7 +7127,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B232">
         <f t="shared" si="3"/>
@@ -7122,7 +7136,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B233">
         <f t="shared" si="3"/>
@@ -7131,7 +7145,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B234">
         <f t="shared" si="3"/>
@@ -7140,7 +7154,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B235">
         <f t="shared" si="3"/>
@@ -7149,7 +7163,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B236">
         <f t="shared" si="3"/>
@@ -7158,7 +7172,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B237">
         <f t="shared" si="3"/>
@@ -7167,7 +7181,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B238">
         <f t="shared" si="3"/>
@@ -7176,7 +7190,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B239">
         <f t="shared" si="3"/>
@@ -7185,7 +7199,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B240">
         <f t="shared" si="3"/>
@@ -7194,7 +7208,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B241">
         <f t="shared" si="3"/>
@@ -7203,7 +7217,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B242">
         <f t="shared" si="3"/>
@@ -7212,7 +7226,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B243">
         <f t="shared" si="3"/>
@@ -7221,7 +7235,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B244">
         <f t="shared" si="3"/>
@@ -7230,7 +7244,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B245">
         <f t="shared" si="3"/>
@@ -7239,7 +7253,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B246">
         <f t="shared" si="3"/>
@@ -7248,7 +7262,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B247">
         <f t="shared" si="3"/>
@@ -7257,7 +7271,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B248">
         <f t="shared" si="3"/>
@@ -7266,7 +7280,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B249">
         <f t="shared" si="3"/>
@@ -7275,7 +7289,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B250">
         <f t="shared" si="3"/>
@@ -7284,7 +7298,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B251">
         <f t="shared" si="3"/>
@@ -7293,7 +7307,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B252">
         <f t="shared" si="3"/>
@@ -7302,7 +7316,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B253">
         <f t="shared" si="3"/>
@@ -7311,7 +7325,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B254">
         <f t="shared" si="3"/>
@@ -7320,7 +7334,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B255">
         <f t="shared" si="3"/>
@@ -7329,7 +7343,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B256">
         <f t="shared" si="3"/>
@@ -7338,7 +7352,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B257">
         <f t="shared" si="3"/>
@@ -7347,7 +7361,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B258">
         <f t="shared" si="3"/>
@@ -7356,7 +7370,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B259">
         <f t="shared" ref="B259:B322" si="4">$G$2/895</f>
@@ -7365,7 +7379,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B260">
         <f t="shared" si="4"/>
@@ -7374,7 +7388,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B261">
         <f t="shared" si="4"/>
@@ -7383,7 +7397,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B262">
         <f t="shared" si="4"/>
@@ -7392,7 +7406,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B263">
         <f t="shared" si="4"/>
@@ -7401,7 +7415,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B264">
         <f t="shared" si="4"/>
@@ -7410,7 +7424,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B265">
         <f t="shared" si="4"/>
@@ -7419,7 +7433,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B266">
         <f t="shared" si="4"/>
@@ -7428,7 +7442,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B267">
         <f t="shared" si="4"/>
@@ -7437,7 +7451,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B268">
         <f t="shared" si="4"/>
@@ -7446,7 +7460,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B269">
         <f t="shared" si="4"/>
@@ -7455,7 +7469,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B270">
         <f t="shared" si="4"/>
@@ -7464,7 +7478,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B271">
         <f t="shared" si="4"/>
@@ -7473,7 +7487,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B272">
         <f t="shared" si="4"/>
@@ -7482,7 +7496,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B273">
         <f t="shared" si="4"/>
@@ -7491,7 +7505,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B274">
         <f t="shared" si="4"/>
@@ -7500,7 +7514,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B275">
         <f t="shared" si="4"/>
@@ -7509,7 +7523,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B276">
         <f t="shared" si="4"/>
@@ -7518,7 +7532,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B277">
         <f t="shared" si="4"/>
@@ -7527,7 +7541,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B278">
         <f t="shared" si="4"/>
@@ -7536,7 +7550,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B279">
         <f t="shared" si="4"/>
@@ -7545,7 +7559,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B280">
         <f t="shared" si="4"/>
@@ -7554,7 +7568,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B281">
         <f t="shared" si="4"/>
@@ -7563,7 +7577,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B282">
         <f t="shared" si="4"/>
@@ -7572,7 +7586,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B283">
         <f t="shared" si="4"/>
@@ -7581,7 +7595,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B284">
         <f t="shared" si="4"/>
@@ -7590,7 +7604,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B285">
         <f t="shared" si="4"/>
@@ -7599,7 +7613,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B286">
         <f t="shared" si="4"/>
@@ -7608,7 +7622,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B287">
         <f t="shared" si="4"/>
@@ -7617,7 +7631,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B288">
         <f t="shared" si="4"/>
@@ -7626,7 +7640,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B289">
         <f t="shared" si="4"/>
@@ -7635,7 +7649,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B290">
         <f t="shared" si="4"/>
@@ -7644,7 +7658,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B291">
         <f t="shared" si="4"/>
@@ -7653,7 +7667,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B292">
         <f t="shared" si="4"/>
@@ -7662,7 +7676,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B293">
         <f t="shared" si="4"/>
@@ -7671,7 +7685,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B294">
         <f t="shared" si="4"/>
@@ -7680,7 +7694,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B295">
         <f t="shared" si="4"/>
@@ -7689,7 +7703,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B296">
         <f t="shared" si="4"/>
@@ -7698,7 +7712,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B297">
         <f t="shared" si="4"/>
@@ -7707,7 +7721,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B298">
         <f t="shared" si="4"/>
@@ -7716,7 +7730,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B299">
         <f t="shared" si="4"/>
@@ -7725,7 +7739,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B300">
         <f t="shared" si="4"/>
@@ -7734,7 +7748,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B301">
         <f t="shared" si="4"/>
@@ -7743,7 +7757,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B302">
         <f t="shared" si="4"/>
@@ -7752,7 +7766,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B303">
         <f t="shared" si="4"/>
@@ -7761,7 +7775,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B304">
         <f t="shared" si="4"/>
@@ -7770,7 +7784,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B305">
         <f t="shared" si="4"/>
@@ -7779,7 +7793,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B306">
         <f t="shared" si="4"/>
@@ -7788,7 +7802,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B307">
         <f t="shared" si="4"/>
@@ -7797,7 +7811,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B308">
         <f t="shared" si="4"/>
@@ -7806,7 +7820,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B309">
         <f t="shared" si="4"/>
@@ -7815,7 +7829,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B310">
         <f t="shared" si="4"/>
@@ -7824,7 +7838,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B311">
         <f t="shared" si="4"/>
@@ -7833,7 +7847,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B312">
         <f t="shared" si="4"/>
@@ -7842,7 +7856,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B313">
         <f t="shared" si="4"/>
@@ -7851,7 +7865,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B314">
         <f t="shared" si="4"/>
@@ -7860,7 +7874,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B315">
         <f t="shared" si="4"/>
@@ -7869,7 +7883,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B316">
         <f t="shared" si="4"/>
@@ -7878,7 +7892,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B317">
         <f t="shared" si="4"/>
@@ -7887,7 +7901,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B318">
         <f t="shared" si="4"/>
@@ -7896,7 +7910,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B319">
         <f t="shared" si="4"/>
@@ -7905,7 +7919,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B320">
         <f t="shared" si="4"/>
@@ -7914,7 +7928,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B321">
         <f t="shared" si="4"/>
@@ -7923,7 +7937,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B322">
         <f t="shared" si="4"/>
@@ -7932,7 +7946,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B323">
         <f t="shared" ref="B323:B386" si="5">$G$2/895</f>
@@ -7941,7 +7955,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B324">
         <f t="shared" si="5"/>
@@ -7950,7 +7964,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B325">
         <f t="shared" si="5"/>
@@ -7959,7 +7973,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B326">
         <f t="shared" si="5"/>
@@ -7968,7 +7982,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B327">
         <f t="shared" si="5"/>
@@ -7977,7 +7991,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B328">
         <f t="shared" si="5"/>
@@ -7986,7 +8000,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B329">
         <f t="shared" si="5"/>
@@ -7995,7 +8009,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B330">
         <f t="shared" si="5"/>
@@ -8004,7 +8018,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B331">
         <f t="shared" si="5"/>
@@ -8013,7 +8027,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B332">
         <f t="shared" si="5"/>
@@ -8022,7 +8036,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B333">
         <f t="shared" si="5"/>
@@ -8031,7 +8045,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B334">
         <f t="shared" si="5"/>
@@ -8040,7 +8054,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B335">
         <f t="shared" si="5"/>
@@ -8049,7 +8063,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B336">
         <f t="shared" si="5"/>
@@ -8058,7 +8072,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B337">
         <f t="shared" si="5"/>
@@ -8067,7 +8081,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B338">
         <f t="shared" si="5"/>
@@ -8076,7 +8090,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B339">
         <f t="shared" si="5"/>
@@ -8085,7 +8099,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B340">
         <f t="shared" si="5"/>
@@ -8094,7 +8108,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B341">
         <f t="shared" si="5"/>
@@ -8103,7 +8117,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B342">
         <f t="shared" si="5"/>
@@ -8112,7 +8126,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B343">
         <f t="shared" si="5"/>
@@ -8121,7 +8135,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B344">
         <f t="shared" si="5"/>
@@ -8130,7 +8144,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B345">
         <f t="shared" si="5"/>
@@ -8139,7 +8153,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B346">
         <f t="shared" si="5"/>
@@ -8148,7 +8162,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B347">
         <f t="shared" si="5"/>
@@ -8157,7 +8171,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B348">
         <f t="shared" si="5"/>
@@ -8166,7 +8180,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B349">
         <f t="shared" si="5"/>
@@ -8175,7 +8189,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B350">
         <f t="shared" si="5"/>
@@ -8184,7 +8198,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B351">
         <f t="shared" si="5"/>
@@ -8193,7 +8207,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B352">
         <f t="shared" si="5"/>
@@ -8202,7 +8216,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B353">
         <f t="shared" si="5"/>
@@ -8211,7 +8225,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B354">
         <f t="shared" si="5"/>
@@ -8220,7 +8234,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B355">
         <f t="shared" si="5"/>
@@ -8229,7 +8243,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B356">
         <f t="shared" si="5"/>
@@ -8238,7 +8252,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B357">
         <f t="shared" si="5"/>
@@ -8247,7 +8261,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B358">
         <f t="shared" si="5"/>
@@ -8256,7 +8270,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B359">
         <f t="shared" si="5"/>
@@ -8265,7 +8279,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B360">
         <f t="shared" si="5"/>
@@ -8274,7 +8288,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B361">
         <f t="shared" si="5"/>
@@ -8283,7 +8297,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B362">
         <f t="shared" si="5"/>
@@ -8292,7 +8306,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B363">
         <f t="shared" si="5"/>
@@ -8301,7 +8315,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B364">
         <f t="shared" si="5"/>
@@ -8310,7 +8324,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B365">
         <f t="shared" si="5"/>
@@ -8319,7 +8333,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B366">
         <f t="shared" si="5"/>
@@ -8328,7 +8342,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B367">
         <f t="shared" si="5"/>
@@ -8337,7 +8351,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B368">
         <f t="shared" si="5"/>
@@ -8346,7 +8360,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B369">
         <f t="shared" si="5"/>
@@ -8355,7 +8369,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B370">
         <f t="shared" si="5"/>
@@ -8364,7 +8378,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B371">
         <f t="shared" si="5"/>
@@ -8373,7 +8387,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B372">
         <f t="shared" si="5"/>
@@ -8382,7 +8396,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B373">
         <f t="shared" si="5"/>
@@ -8391,7 +8405,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B374">
         <f t="shared" si="5"/>
@@ -8400,7 +8414,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B375">
         <f t="shared" si="5"/>
@@ -8409,7 +8423,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B376">
         <f t="shared" si="5"/>
@@ -8418,7 +8432,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B377">
         <f t="shared" si="5"/>
@@ -8427,7 +8441,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B378">
         <f t="shared" si="5"/>
@@ -8436,7 +8450,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B379">
         <f t="shared" si="5"/>
@@ -8445,7 +8459,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B380">
         <f t="shared" si="5"/>
@@ -8454,7 +8468,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B381">
         <f t="shared" si="5"/>
@@ -8463,7 +8477,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B382">
         <f t="shared" si="5"/>
@@ -8472,7 +8486,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B383">
         <f t="shared" si="5"/>
@@ -8481,7 +8495,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B384">
         <f t="shared" si="5"/>
@@ -8490,7 +8504,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B385">
         <f t="shared" si="5"/>
@@ -8499,7 +8513,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B386">
         <f t="shared" si="5"/>
@@ -8508,7 +8522,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B387">
         <f t="shared" ref="B387:B450" si="6">$G$2/895</f>
@@ -8517,7 +8531,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B388">
         <f t="shared" si="6"/>
@@ -8526,7 +8540,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B389">
         <f t="shared" si="6"/>
@@ -8535,7 +8549,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B390">
         <f t="shared" si="6"/>
@@ -8544,7 +8558,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B391">
         <f t="shared" si="6"/>
@@ -8553,7 +8567,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B392">
         <f t="shared" si="6"/>
@@ -8562,7 +8576,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B393">
         <f t="shared" si="6"/>
@@ -8571,7 +8585,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B394">
         <f t="shared" si="6"/>
@@ -8580,7 +8594,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B395">
         <f t="shared" si="6"/>
@@ -8589,7 +8603,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B396">
         <f t="shared" si="6"/>
@@ -8598,7 +8612,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B397">
         <f t="shared" si="6"/>
@@ -8607,7 +8621,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B398">
         <f t="shared" si="6"/>
@@ -8616,7 +8630,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B399">
         <f t="shared" si="6"/>
@@ -8625,7 +8639,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B400">
         <f t="shared" si="6"/>
@@ -8634,7 +8648,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B401">
         <f t="shared" si="6"/>
@@ -8643,7 +8657,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B402">
         <f t="shared" si="6"/>
@@ -8652,7 +8666,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B403">
         <f t="shared" si="6"/>
@@ -8661,7 +8675,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B404">
         <f t="shared" si="6"/>
@@ -8670,7 +8684,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B405">
         <f t="shared" si="6"/>
@@ -8679,7 +8693,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B406">
         <f t="shared" si="6"/>
@@ -8688,7 +8702,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B407">
         <f t="shared" si="6"/>
@@ -8697,7 +8711,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B408">
         <f t="shared" si="6"/>
@@ -8706,7 +8720,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B409">
         <f t="shared" si="6"/>
@@ -8715,7 +8729,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B410">
         <f t="shared" si="6"/>
@@ -8724,7 +8738,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B411">
         <f t="shared" si="6"/>
@@ -8733,7 +8747,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B412">
         <f t="shared" si="6"/>
@@ -8742,7 +8756,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B413">
         <f t="shared" si="6"/>
@@ -8751,7 +8765,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B414">
         <f t="shared" si="6"/>
@@ -8760,7 +8774,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B415">
         <f t="shared" si="6"/>
@@ -8769,7 +8783,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B416">
         <f t="shared" si="6"/>
@@ -8778,7 +8792,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B417">
         <f t="shared" si="6"/>
@@ -8787,7 +8801,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B418">
         <f t="shared" si="6"/>
@@ -8796,7 +8810,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B419">
         <f t="shared" si="6"/>
@@ -8805,7 +8819,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B420">
         <f t="shared" si="6"/>
@@ -8814,7 +8828,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B421">
         <f t="shared" si="6"/>
@@ -8823,7 +8837,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B422">
         <f t="shared" si="6"/>
@@ -8832,7 +8846,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B423">
         <f t="shared" si="6"/>
@@ -8841,7 +8855,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B424">
         <f t="shared" si="6"/>
@@ -8850,7 +8864,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B425">
         <f t="shared" si="6"/>
@@ -8859,7 +8873,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B426">
         <f t="shared" si="6"/>
@@ -8868,7 +8882,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B427">
         <f t="shared" si="6"/>
@@ -8877,7 +8891,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B428">
         <f t="shared" si="6"/>
@@ -8886,7 +8900,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B429">
         <f t="shared" si="6"/>
@@ -8895,7 +8909,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B430">
         <f t="shared" si="6"/>
@@ -8904,7 +8918,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B431">
         <f t="shared" si="6"/>
@@ -8913,7 +8927,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B432">
         <f t="shared" si="6"/>
@@ -8922,7 +8936,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B433">
         <f t="shared" si="6"/>
@@ -8931,7 +8945,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B434">
         <f t="shared" si="6"/>
@@ -8940,7 +8954,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B435">
         <f t="shared" si="6"/>
@@ -8949,7 +8963,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B436">
         <f t="shared" si="6"/>
@@ -8958,7 +8972,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B437">
         <f t="shared" si="6"/>
@@ -8967,7 +8981,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B438">
         <f t="shared" si="6"/>
@@ -8976,7 +8990,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B439">
         <f t="shared" si="6"/>
@@ -8985,7 +8999,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B440">
         <f t="shared" si="6"/>
@@ -8994,7 +9008,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B441">
         <f t="shared" si="6"/>
@@ -9003,7 +9017,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B442">
         <f t="shared" si="6"/>
@@ -9012,7 +9026,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B443">
         <f t="shared" si="6"/>
@@ -9021,7 +9035,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B444">
         <f t="shared" si="6"/>
@@ -9030,7 +9044,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B445">
         <f t="shared" si="6"/>
@@ -9039,7 +9053,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B446">
         <f t="shared" si="6"/>
@@ -9048,7 +9062,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B447">
         <f t="shared" si="6"/>
@@ -9057,7 +9071,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B448">
         <f t="shared" si="6"/>
@@ -9066,7 +9080,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B449">
         <f t="shared" si="6"/>
@@ -9075,7 +9089,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B450">
         <f t="shared" si="6"/>
@@ -9084,7 +9098,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B451">
         <f t="shared" ref="B451:B514" si="7">$G$2/895</f>
@@ -9093,7 +9107,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B452">
         <f t="shared" si="7"/>
@@ -9102,7 +9116,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B453">
         <f t="shared" si="7"/>
@@ -9111,7 +9125,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B454">
         <f t="shared" si="7"/>
@@ -9120,7 +9134,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B455">
         <f t="shared" si="7"/>
@@ -9129,7 +9143,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B456">
         <f t="shared" si="7"/>
@@ -9138,7 +9152,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B457">
         <f t="shared" si="7"/>
@@ -9147,7 +9161,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B458">
         <f t="shared" si="7"/>
@@ -9156,7 +9170,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B459">
         <f t="shared" si="7"/>
@@ -9165,7 +9179,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B460">
         <f t="shared" si="7"/>
@@ -9174,7 +9188,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B461">
         <f t="shared" si="7"/>
@@ -9183,7 +9197,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B462">
         <f t="shared" si="7"/>
@@ -9192,7 +9206,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B463">
         <f t="shared" si="7"/>
@@ -9201,7 +9215,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B464">
         <f t="shared" si="7"/>
@@ -9210,7 +9224,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B465">
         <f t="shared" si="7"/>
@@ -9219,7 +9233,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B466">
         <f t="shared" si="7"/>
@@ -9228,7 +9242,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B467">
         <f t="shared" si="7"/>
@@ -9237,7 +9251,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B468">
         <f t="shared" si="7"/>
@@ -9246,7 +9260,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B469">
         <f t="shared" si="7"/>
@@ -9255,7 +9269,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B470">
         <f t="shared" si="7"/>
@@ -9264,7 +9278,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B471">
         <f t="shared" si="7"/>
@@ -9273,7 +9287,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B472">
         <f t="shared" si="7"/>
@@ -9282,7 +9296,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B473">
         <f t="shared" si="7"/>
@@ -9291,7 +9305,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B474">
         <f t="shared" si="7"/>
@@ -9300,7 +9314,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B475">
         <f t="shared" si="7"/>
@@ -9309,7 +9323,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B476">
         <f t="shared" si="7"/>
@@ -9318,7 +9332,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B477">
         <f t="shared" si="7"/>
@@ -9327,7 +9341,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B478">
         <f t="shared" si="7"/>
@@ -9336,7 +9350,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B479">
         <f t="shared" si="7"/>
@@ -9345,7 +9359,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B480">
         <f t="shared" si="7"/>
@@ -9354,7 +9368,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B481">
         <f t="shared" si="7"/>
@@ -9363,7 +9377,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B482">
         <f t="shared" si="7"/>
@@ -9372,7 +9386,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B483">
         <f t="shared" si="7"/>
@@ -9381,7 +9395,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B484">
         <f t="shared" si="7"/>
@@ -9390,7 +9404,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B485">
         <f t="shared" si="7"/>
@@ -9399,7 +9413,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B486">
         <f t="shared" si="7"/>
@@ -9408,7 +9422,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B487">
         <f t="shared" si="7"/>
@@ -9417,7 +9431,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B488">
         <f t="shared" si="7"/>
@@ -9426,7 +9440,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B489">
         <f t="shared" si="7"/>
@@ -9435,7 +9449,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B490">
         <f t="shared" si="7"/>
@@ -9444,7 +9458,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B491">
         <f t="shared" si="7"/>
@@ -9453,7 +9467,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B492">
         <f t="shared" si="7"/>
@@ -9462,7 +9476,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B493">
         <f t="shared" si="7"/>
@@ -9471,7 +9485,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B494">
         <f t="shared" si="7"/>
@@ -9480,7 +9494,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B495">
         <f t="shared" si="7"/>
@@ -9489,7 +9503,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B496">
         <f t="shared" si="7"/>
@@ -9498,7 +9512,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B497">
         <f t="shared" si="7"/>
@@ -9507,7 +9521,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B498">
         <f t="shared" si="7"/>
@@ -9516,7 +9530,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B499">
         <f t="shared" si="7"/>
@@ -9525,7 +9539,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B500">
         <f t="shared" si="7"/>
@@ -9534,7 +9548,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B501">
         <f t="shared" si="7"/>
@@ -9543,7 +9557,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B502">
         <f t="shared" si="7"/>
@@ -9552,7 +9566,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B503">
         <f t="shared" si="7"/>
@@ -9561,7 +9575,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B504">
         <f t="shared" si="7"/>
@@ -9570,7 +9584,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B505">
         <f t="shared" si="7"/>
@@ -9579,7 +9593,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B506">
         <f t="shared" si="7"/>
@@ -9588,7 +9602,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B507">
         <f t="shared" si="7"/>
@@ -9597,7 +9611,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B508">
         <f t="shared" si="7"/>
@@ -9606,7 +9620,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B509">
         <f t="shared" si="7"/>
@@ -9615,7 +9629,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B510">
         <f t="shared" si="7"/>
@@ -9624,7 +9638,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B511">
         <f t="shared" si="7"/>
@@ -9633,7 +9647,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B512">
         <f t="shared" si="7"/>
@@ -9642,7 +9656,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B513">
         <f t="shared" si="7"/>
@@ -9651,7 +9665,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B514">
         <f t="shared" si="7"/>
@@ -9660,7 +9674,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B515">
         <f t="shared" ref="B515:B578" si="8">$G$2/895</f>
@@ -9669,7 +9683,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B516">
         <f t="shared" si="8"/>
@@ -9678,7 +9692,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B517">
         <f t="shared" si="8"/>
@@ -9687,7 +9701,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B518">
         <f t="shared" si="8"/>
@@ -9696,7 +9710,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B519">
         <f t="shared" si="8"/>
@@ -9705,7 +9719,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B520">
         <f t="shared" si="8"/>
@@ -9714,7 +9728,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B521">
         <f t="shared" si="8"/>
@@ -9723,7 +9737,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B522">
         <f t="shared" si="8"/>
@@ -9732,7 +9746,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B523">
         <f t="shared" si="8"/>
@@ -9741,7 +9755,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B524">
         <f t="shared" si="8"/>
@@ -9750,7 +9764,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B525">
         <f t="shared" si="8"/>
@@ -9759,7 +9773,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B526">
         <f t="shared" si="8"/>
@@ -9768,7 +9782,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B527">
         <f t="shared" si="8"/>
@@ -9777,7 +9791,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B528">
         <f t="shared" si="8"/>
@@ -9786,7 +9800,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B529">
         <f t="shared" si="8"/>
@@ -9795,7 +9809,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B530">
         <f t="shared" si="8"/>
@@ -9804,7 +9818,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B531">
         <f t="shared" si="8"/>
@@ -9813,7 +9827,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B532">
         <f t="shared" si="8"/>
@@ -9822,7 +9836,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B533">
         <f t="shared" si="8"/>
@@ -9831,7 +9845,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B534">
         <f t="shared" si="8"/>
@@ -9840,7 +9854,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B535">
         <f t="shared" si="8"/>
@@ -9849,7 +9863,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B536">
         <f t="shared" si="8"/>
@@ -9858,7 +9872,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B537">
         <f t="shared" si="8"/>
@@ -9867,7 +9881,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B538">
         <f t="shared" si="8"/>
@@ -9876,7 +9890,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B539">
         <f t="shared" si="8"/>
@@ -9885,7 +9899,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B540">
         <f t="shared" si="8"/>
@@ -9894,7 +9908,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B541">
         <f t="shared" si="8"/>
@@ -9903,7 +9917,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B542">
         <f t="shared" si="8"/>
@@ -9912,7 +9926,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B543">
         <f t="shared" si="8"/>
@@ -9921,7 +9935,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B544">
         <f t="shared" si="8"/>
@@ -9930,7 +9944,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B545">
         <f t="shared" si="8"/>
@@ -9939,7 +9953,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B546">
         <f t="shared" si="8"/>
@@ -9948,7 +9962,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B547">
         <f t="shared" si="8"/>
@@ -9957,7 +9971,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B548">
         <f t="shared" si="8"/>
@@ -9966,7 +9980,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B549">
         <f t="shared" si="8"/>
@@ -9975,7 +9989,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B550">
         <f t="shared" si="8"/>
@@ -9984,7 +9998,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B551">
         <f t="shared" si="8"/>
@@ -9993,7 +10007,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B552">
         <f t="shared" si="8"/>
@@ -10002,7 +10016,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B553">
         <f t="shared" si="8"/>
@@ -10011,7 +10025,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B554">
         <f t="shared" si="8"/>
@@ -10020,7 +10034,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B555">
         <f t="shared" si="8"/>
@@ -10029,7 +10043,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B556">
         <f t="shared" si="8"/>
@@ -10038,7 +10052,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B557">
         <f t="shared" si="8"/>
@@ -10047,7 +10061,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B558">
         <f t="shared" si="8"/>
@@ -10056,7 +10070,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B559">
         <f t="shared" si="8"/>
@@ -10065,7 +10079,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B560">
         <f t="shared" si="8"/>
@@ -10074,7 +10088,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B561">
         <f t="shared" si="8"/>
@@ -10083,7 +10097,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B562">
         <f t="shared" si="8"/>
@@ -10092,7 +10106,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B563">
         <f t="shared" si="8"/>
@@ -10101,7 +10115,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B564">
         <f t="shared" si="8"/>
@@ -10110,7 +10124,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B565">
         <f t="shared" si="8"/>
@@ -10119,7 +10133,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B566">
         <f t="shared" si="8"/>
@@ -10128,7 +10142,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B567">
         <f t="shared" si="8"/>
@@ -10137,7 +10151,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B568">
         <f t="shared" si="8"/>
@@ -10146,7 +10160,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B569">
         <f t="shared" si="8"/>
@@ -10155,7 +10169,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B570">
         <f t="shared" si="8"/>
@@ -10164,7 +10178,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B571">
         <f t="shared" si="8"/>
@@ -10173,7 +10187,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B572">
         <f t="shared" si="8"/>
@@ -10182,7 +10196,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B573">
         <f t="shared" si="8"/>
@@ -10191,7 +10205,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B574">
         <f t="shared" si="8"/>
@@ -10200,7 +10214,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B575">
         <f t="shared" si="8"/>
@@ -10209,7 +10223,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B576">
         <f t="shared" si="8"/>
@@ -10218,7 +10232,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B577">
         <f t="shared" si="8"/>
@@ -10227,7 +10241,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B578">
         <f t="shared" si="8"/>
@@ -10236,7 +10250,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B579">
         <f t="shared" ref="B579:B642" si="9">$G$2/895</f>
@@ -10245,7 +10259,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B580">
         <f t="shared" si="9"/>
@@ -10254,7 +10268,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B581">
         <f t="shared" si="9"/>
@@ -10263,7 +10277,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B582">
         <f t="shared" si="9"/>
@@ -10272,7 +10286,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B583">
         <f t="shared" si="9"/>
@@ -10281,7 +10295,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B584">
         <f t="shared" si="9"/>
@@ -10290,7 +10304,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B585">
         <f t="shared" si="9"/>
@@ -10299,7 +10313,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B586">
         <f t="shared" si="9"/>
@@ -10308,7 +10322,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B587">
         <f t="shared" si="9"/>
@@ -10317,7 +10331,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B588">
         <f t="shared" si="9"/>
@@ -10326,7 +10340,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B589">
         <f t="shared" si="9"/>
@@ -10335,7 +10349,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B590">
         <f t="shared" si="9"/>
@@ -10344,7 +10358,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B591">
         <f t="shared" si="9"/>
@@ -10353,7 +10367,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B592">
         <f t="shared" si="9"/>
@@ -10362,7 +10376,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B593">
         <f t="shared" si="9"/>
@@ -10371,7 +10385,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B594">
         <f t="shared" si="9"/>
@@ -10380,7 +10394,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B595">
         <f t="shared" si="9"/>
@@ -10389,7 +10403,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B596">
         <f t="shared" si="9"/>
@@ -10398,7 +10412,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B597">
         <f t="shared" si="9"/>
@@ -10407,7 +10421,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B598">
         <f t="shared" si="9"/>
@@ -10416,7 +10430,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B599">
         <f t="shared" si="9"/>
@@ -10425,7 +10439,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B600">
         <f t="shared" si="9"/>
@@ -10434,7 +10448,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B601">
         <f t="shared" si="9"/>
@@ -10443,7 +10457,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B602">
         <f t="shared" si="9"/>
@@ -10452,7 +10466,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B603">
         <f t="shared" si="9"/>
@@ -10461,7 +10475,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B604">
         <f t="shared" si="9"/>
@@ -10470,7 +10484,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B605">
         <f t="shared" si="9"/>
@@ -10479,7 +10493,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B606">
         <f t="shared" si="9"/>
@@ -10488,7 +10502,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B607">
         <f t="shared" si="9"/>
@@ -10497,7 +10511,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B608">
         <f t="shared" si="9"/>
@@ -10506,7 +10520,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B609">
         <f t="shared" si="9"/>
@@ -10515,7 +10529,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B610">
         <f t="shared" si="9"/>
@@ -10524,7 +10538,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B611">
         <f t="shared" si="9"/>
@@ -10533,7 +10547,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B612">
         <f t="shared" si="9"/>
@@ -10542,7 +10556,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B613">
         <f t="shared" si="9"/>
@@ -10551,7 +10565,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B614">
         <f t="shared" si="9"/>
@@ -10560,7 +10574,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B615">
         <f t="shared" si="9"/>
@@ -10569,7 +10583,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B616">
         <f t="shared" si="9"/>
@@ -10578,7 +10592,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B617">
         <f t="shared" si="9"/>
@@ -10587,7 +10601,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B618">
         <f t="shared" si="9"/>
@@ -10596,7 +10610,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B619">
         <f t="shared" si="9"/>
@@ -10605,7 +10619,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B620">
         <f t="shared" si="9"/>
@@ -10614,7 +10628,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B621">
         <f t="shared" si="9"/>
@@ -10623,7 +10637,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B622">
         <f t="shared" si="9"/>
@@ -10632,7 +10646,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B623">
         <f t="shared" si="9"/>
@@ -10641,7 +10655,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B624">
         <f t="shared" si="9"/>
@@ -10650,7 +10664,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B625">
         <f t="shared" si="9"/>
@@ -10659,7 +10673,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B626">
         <f t="shared" si="9"/>
@@ -10668,7 +10682,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B627">
         <f t="shared" si="9"/>
@@ -10677,7 +10691,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B628">
         <f t="shared" si="9"/>
@@ -10686,7 +10700,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B629">
         <f t="shared" si="9"/>
@@ -10695,7 +10709,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B630">
         <f t="shared" si="9"/>
@@ -10704,7 +10718,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B631">
         <f t="shared" si="9"/>
@@ -10713,7 +10727,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B632">
         <f t="shared" si="9"/>
@@ -10722,7 +10736,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B633">
         <f t="shared" si="9"/>
@@ -10731,7 +10745,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B634">
         <f t="shared" si="9"/>
@@ -10740,7 +10754,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B635">
         <f t="shared" si="9"/>
@@ -10749,7 +10763,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B636">
         <f t="shared" si="9"/>
@@ -10758,7 +10772,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B637">
         <f t="shared" si="9"/>
@@ -10767,7 +10781,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B638">
         <f t="shared" si="9"/>
@@ -10776,7 +10790,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B639">
         <f t="shared" si="9"/>
@@ -10785,7 +10799,7 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B640">
         <f t="shared" si="9"/>
@@ -10794,7 +10808,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B641">
         <f t="shared" si="9"/>
@@ -10803,7 +10817,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B642">
         <f t="shared" si="9"/>
@@ -10812,7 +10826,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B643">
         <f t="shared" ref="B643:B706" si="10">$G$2/895</f>
@@ -10821,7 +10835,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B644">
         <f t="shared" si="10"/>
@@ -10830,7 +10844,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B645">
         <f t="shared" si="10"/>
@@ -10839,7 +10853,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B646">
         <f t="shared" si="10"/>
@@ -10848,7 +10862,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B647">
         <f t="shared" si="10"/>
@@ -10857,7 +10871,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B648">
         <f t="shared" si="10"/>
@@ -10866,7 +10880,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B649">
         <f t="shared" si="10"/>
@@ -10875,7 +10889,7 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B650">
         <f t="shared" si="10"/>
@@ -10884,7 +10898,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B651">
         <f t="shared" si="10"/>
@@ -10893,7 +10907,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B652">
         <f t="shared" si="10"/>
@@ -10902,7 +10916,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B653">
         <f t="shared" si="10"/>
@@ -10911,7 +10925,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B654">
         <f t="shared" si="10"/>
@@ -10920,7 +10934,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B655">
         <f t="shared" si="10"/>
@@ -10929,7 +10943,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B656">
         <f t="shared" si="10"/>
@@ -10938,7 +10952,7 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B657">
         <f t="shared" si="10"/>
@@ -10947,7 +10961,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B658">
         <f t="shared" si="10"/>
@@ -10956,7 +10970,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B659">
         <f t="shared" si="10"/>
@@ -10965,7 +10979,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B660">
         <f t="shared" si="10"/>
@@ -10974,7 +10988,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B661">
         <f t="shared" si="10"/>
@@ -10983,7 +10997,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B662">
         <f t="shared" si="10"/>
@@ -10992,7 +11006,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B663">
         <f t="shared" si="10"/>
@@ -11001,7 +11015,7 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B664">
         <f t="shared" si="10"/>
@@ -11010,7 +11024,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B665">
         <f t="shared" si="10"/>
@@ -11019,7 +11033,7 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B666">
         <f t="shared" si="10"/>
@@ -11028,7 +11042,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B667">
         <f t="shared" si="10"/>
@@ -11037,7 +11051,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B668">
         <f t="shared" si="10"/>
@@ -11046,7 +11060,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B669">
         <f t="shared" si="10"/>
@@ -11055,7 +11069,7 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B670">
         <f t="shared" si="10"/>
@@ -11064,7 +11078,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B671">
         <f t="shared" si="10"/>
@@ -11073,7 +11087,7 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B672">
         <f t="shared" si="10"/>
@@ -11082,7 +11096,7 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B673">
         <f t="shared" si="10"/>
@@ -11091,7 +11105,7 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B674">
         <f t="shared" si="10"/>
@@ -11100,7 +11114,7 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B675">
         <f t="shared" si="10"/>
@@ -11109,7 +11123,7 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B676">
         <f t="shared" si="10"/>
@@ -11118,7 +11132,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B677">
         <f t="shared" si="10"/>
@@ -11127,7 +11141,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B678">
         <f t="shared" si="10"/>
@@ -11136,7 +11150,7 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B679">
         <f t="shared" si="10"/>
@@ -11145,7 +11159,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B680">
         <f t="shared" si="10"/>
@@ -11154,7 +11168,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B681">
         <f t="shared" si="10"/>
@@ -11163,7 +11177,7 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B682">
         <f t="shared" si="10"/>
@@ -11172,7 +11186,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B683">
         <f t="shared" si="10"/>
@@ -11181,7 +11195,7 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B684">
         <f t="shared" si="10"/>
@@ -11190,7 +11204,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B685">
         <f t="shared" si="10"/>
@@ -11199,7 +11213,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B686">
         <f t="shared" si="10"/>
@@ -11208,7 +11222,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B687">
         <f t="shared" si="10"/>
@@ -11217,7 +11231,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B688">
         <f t="shared" si="10"/>
@@ -11226,7 +11240,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B689">
         <f t="shared" si="10"/>
@@ -11235,7 +11249,7 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B690">
         <f t="shared" si="10"/>
@@ -11244,7 +11258,7 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B691">
         <f t="shared" si="10"/>
@@ -11253,7 +11267,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B692">
         <f t="shared" si="10"/>
@@ -11262,7 +11276,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B693">
         <f t="shared" si="10"/>
@@ -11271,7 +11285,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B694">
         <f t="shared" si="10"/>
@@ -11280,7 +11294,7 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B695">
         <f t="shared" si="10"/>
@@ -11289,7 +11303,7 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B696">
         <f t="shared" si="10"/>
@@ -11298,7 +11312,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B697">
         <f t="shared" si="10"/>
@@ -11307,7 +11321,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B698">
         <f t="shared" si="10"/>
@@ -11316,7 +11330,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B699">
         <f t="shared" si="10"/>
@@ -11325,7 +11339,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B700">
         <f t="shared" si="10"/>
@@ -11334,7 +11348,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B701">
         <f t="shared" si="10"/>
@@ -11343,7 +11357,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B702">
         <f t="shared" si="10"/>
@@ -11352,7 +11366,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B703">
         <f t="shared" si="10"/>
@@ -11361,7 +11375,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B704">
         <f t="shared" si="10"/>
@@ -11370,7 +11384,7 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B705">
         <f t="shared" si="10"/>
@@ -11379,7 +11393,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B706">
         <f t="shared" si="10"/>
@@ -11388,7 +11402,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B707">
         <f t="shared" ref="B707:B770" si="11">$G$2/895</f>
@@ -11397,7 +11411,7 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B708">
         <f t="shared" si="11"/>
@@ -11406,7 +11420,7 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B709">
         <f t="shared" si="11"/>
@@ -11415,7 +11429,7 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B710">
         <f t="shared" si="11"/>
@@ -11424,7 +11438,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B711">
         <f t="shared" si="11"/>
@@ -11433,7 +11447,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B712">
         <f t="shared" si="11"/>
@@ -11442,7 +11456,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B713">
         <f t="shared" si="11"/>
@@ -11451,7 +11465,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B714">
         <f t="shared" si="11"/>
@@ -11460,7 +11474,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B715">
         <f t="shared" si="11"/>
@@ -11469,7 +11483,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B716">
         <f t="shared" si="11"/>
@@ -11478,7 +11492,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B717">
         <f t="shared" si="11"/>
@@ -11487,7 +11501,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B718">
         <f t="shared" si="11"/>
@@ -11496,7 +11510,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B719">
         <f t="shared" si="11"/>
@@ -11505,7 +11519,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B720">
         <f t="shared" si="11"/>
@@ -11514,7 +11528,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B721">
         <f t="shared" si="11"/>
@@ -11523,7 +11537,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B722">
         <f t="shared" si="11"/>
@@ -11532,7 +11546,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B723">
         <f t="shared" si="11"/>
@@ -11541,7 +11555,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B724">
         <f t="shared" si="11"/>
@@ -11550,7 +11564,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B725">
         <f t="shared" si="11"/>
@@ -11559,7 +11573,7 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B726">
         <f t="shared" si="11"/>
@@ -11568,7 +11582,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B727">
         <f t="shared" si="11"/>
@@ -11577,7 +11591,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B728">
         <f t="shared" si="11"/>
@@ -11586,7 +11600,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B729">
         <f t="shared" si="11"/>
@@ -11595,7 +11609,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B730">
         <f t="shared" si="11"/>
@@ -11604,7 +11618,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B731">
         <f t="shared" si="11"/>
@@ -11613,7 +11627,7 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B732">
         <f t="shared" si="11"/>
@@ -11622,7 +11636,7 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B733">
         <f t="shared" si="11"/>
@@ -11631,7 +11645,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B734">
         <f t="shared" si="11"/>
@@ -11640,7 +11654,7 @@
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B735">
         <f t="shared" si="11"/>
@@ -11649,7 +11663,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B736">
         <f t="shared" si="11"/>
@@ -11658,7 +11672,7 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B737">
         <f t="shared" si="11"/>
@@ -11667,7 +11681,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B738">
         <f t="shared" si="11"/>
@@ -11676,7 +11690,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B739">
         <f t="shared" si="11"/>
@@ -11685,7 +11699,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B740">
         <f t="shared" si="11"/>
@@ -11694,7 +11708,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B741">
         <f t="shared" si="11"/>
@@ -11703,7 +11717,7 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B742">
         <f t="shared" si="11"/>
@@ -11712,7 +11726,7 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B743">
         <f t="shared" si="11"/>
@@ -11721,7 +11735,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B744">
         <f t="shared" si="11"/>
@@ -11730,7 +11744,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B745">
         <f t="shared" si="11"/>
@@ -11739,7 +11753,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B746">
         <f t="shared" si="11"/>
@@ -11748,7 +11762,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B747">
         <f t="shared" si="11"/>
@@ -11757,7 +11771,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B748">
         <f t="shared" si="11"/>
@@ -11766,7 +11780,7 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B749">
         <f t="shared" si="11"/>
@@ -11775,7 +11789,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B750">
         <f t="shared" si="11"/>
@@ -11784,7 +11798,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B751">
         <f t="shared" si="11"/>
@@ -11793,7 +11807,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B752">
         <f t="shared" si="11"/>
@@ -11802,7 +11816,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B753">
         <f t="shared" si="11"/>
@@ -11811,7 +11825,7 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B754">
         <f t="shared" si="11"/>
@@ -11820,7 +11834,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B755">
         <f t="shared" si="11"/>
@@ -11829,7 +11843,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B756">
         <f t="shared" si="11"/>
@@ -11838,7 +11852,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B757">
         <f t="shared" si="11"/>
@@ -11847,7 +11861,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B758">
         <f t="shared" si="11"/>
@@ -11856,7 +11870,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B759">
         <f t="shared" si="11"/>
@@ -11865,7 +11879,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B760">
         <f t="shared" si="11"/>
@@ -11874,7 +11888,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B761">
         <f t="shared" si="11"/>
@@ -11883,7 +11897,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B762">
         <f t="shared" si="11"/>
@@ -11892,7 +11906,7 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B763">
         <f t="shared" si="11"/>
@@ -11901,7 +11915,7 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B764">
         <f t="shared" si="11"/>
@@ -11910,7 +11924,7 @@
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B765">
         <f t="shared" si="11"/>
@@ -11919,7 +11933,7 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B766">
         <f t="shared" si="11"/>
@@ -11928,7 +11942,7 @@
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B767">
         <f t="shared" si="11"/>
@@ -11937,7 +11951,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B768">
         <f t="shared" si="11"/>
@@ -11946,7 +11960,7 @@
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B769">
         <f t="shared" si="11"/>
@@ -11955,7 +11969,7 @@
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B770">
         <f t="shared" si="11"/>
@@ -11964,7 +11978,7 @@
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B771">
         <f t="shared" ref="B771:B834" si="12">$G$2/895</f>
@@ -11973,7 +11987,7 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B772">
         <f t="shared" si="12"/>
@@ -11982,7 +11996,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B773">
         <f t="shared" si="12"/>
@@ -11991,7 +12005,7 @@
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B774">
         <f t="shared" si="12"/>
@@ -12000,7 +12014,7 @@
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B775">
         <f t="shared" si="12"/>
@@ -12009,7 +12023,7 @@
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B776">
         <f t="shared" si="12"/>
@@ -12018,7 +12032,7 @@
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B777">
         <f t="shared" si="12"/>
@@ -12027,7 +12041,7 @@
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B778">
         <f t="shared" si="12"/>
@@ -12036,7 +12050,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B779">
         <f t="shared" si="12"/>
@@ -12045,7 +12059,7 @@
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B780">
         <f t="shared" si="12"/>
@@ -12054,7 +12068,7 @@
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B781">
         <f t="shared" si="12"/>
@@ -12063,7 +12077,7 @@
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B782">
         <f t="shared" si="12"/>
@@ -12072,7 +12086,7 @@
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B783">
         <f t="shared" si="12"/>
@@ -12081,7 +12095,7 @@
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B784">
         <f t="shared" si="12"/>
@@ -12090,7 +12104,7 @@
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B785">
         <f t="shared" si="12"/>
@@ -12099,7 +12113,7 @@
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B786">
         <f t="shared" si="12"/>
@@ -12108,7 +12122,7 @@
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B787">
         <f t="shared" si="12"/>
@@ -12117,7 +12131,7 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B788">
         <f t="shared" si="12"/>
@@ -12126,7 +12140,7 @@
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B789">
         <f t="shared" si="12"/>
@@ -12135,7 +12149,7 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B790">
         <f t="shared" si="12"/>
@@ -12144,7 +12158,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B791">
         <f t="shared" si="12"/>
@@ -12153,7 +12167,7 @@
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B792">
         <f t="shared" si="12"/>
@@ -12162,7 +12176,7 @@
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B793">
         <f t="shared" si="12"/>
@@ -12171,7 +12185,7 @@
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B794">
         <f t="shared" si="12"/>
@@ -12180,7 +12194,7 @@
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B795">
         <f t="shared" si="12"/>
@@ -12189,7 +12203,7 @@
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B796">
         <f t="shared" si="12"/>
@@ -12198,7 +12212,7 @@
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B797">
         <f t="shared" si="12"/>
@@ -12207,7 +12221,7 @@
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B798">
         <f t="shared" si="12"/>
@@ -12216,7 +12230,7 @@
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B799">
         <f t="shared" si="12"/>
@@ -12225,7 +12239,7 @@
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B800">
         <f t="shared" si="12"/>
@@ -12234,7 +12248,7 @@
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B801">
         <f t="shared" si="12"/>
@@ -12243,7 +12257,7 @@
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B802">
         <f t="shared" si="12"/>
@@ -12252,7 +12266,7 @@
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B803">
         <f t="shared" si="12"/>
@@ -12261,7 +12275,7 @@
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B804">
         <f t="shared" si="12"/>
@@ -12270,7 +12284,7 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B805">
         <f t="shared" si="12"/>
@@ -12279,7 +12293,7 @@
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B806">
         <f t="shared" si="12"/>
@@ -12288,7 +12302,7 @@
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B807">
         <f t="shared" si="12"/>
@@ -12297,7 +12311,7 @@
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B808">
         <f t="shared" si="12"/>
@@ -12306,7 +12320,7 @@
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B809">
         <f t="shared" si="12"/>
@@ -12315,7 +12329,7 @@
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B810">
         <f t="shared" si="12"/>
@@ -12324,7 +12338,7 @@
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B811">
         <f t="shared" si="12"/>
@@ -12333,7 +12347,7 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B812">
         <f t="shared" si="12"/>
@@ -12342,7 +12356,7 @@
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B813">
         <f t="shared" si="12"/>
@@ -12351,7 +12365,7 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B814">
         <f t="shared" si="12"/>
@@ -12360,7 +12374,7 @@
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B815">
         <f t="shared" si="12"/>
@@ -12369,7 +12383,7 @@
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B816">
         <f t="shared" si="12"/>
@@ -12378,7 +12392,7 @@
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B817">
         <f t="shared" si="12"/>
@@ -12387,7 +12401,7 @@
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B818">
         <f t="shared" si="12"/>
@@ -12396,7 +12410,7 @@
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B819">
         <f t="shared" si="12"/>
@@ -12405,7 +12419,7 @@
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B820">
         <f t="shared" si="12"/>
@@ -12414,7 +12428,7 @@
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B821">
         <f t="shared" si="12"/>
@@ -12423,7 +12437,7 @@
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B822">
         <f t="shared" si="12"/>
@@ -12432,7 +12446,7 @@
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B823">
         <f t="shared" si="12"/>
@@ -12441,7 +12455,7 @@
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B824">
         <f t="shared" si="12"/>
@@ -12450,7 +12464,7 @@
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B825">
         <f t="shared" si="12"/>
@@ -12459,7 +12473,7 @@
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B826">
         <f t="shared" si="12"/>
@@ -12468,7 +12482,7 @@
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B827">
         <f t="shared" si="12"/>
@@ -12477,7 +12491,7 @@
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B828">
         <f t="shared" si="12"/>
@@ -12486,7 +12500,7 @@
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B829">
         <f t="shared" si="12"/>
@@ -12495,7 +12509,7 @@
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B830">
         <f t="shared" si="12"/>
@@ -12504,7 +12518,7 @@
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B831">
         <f t="shared" si="12"/>
@@ -12513,7 +12527,7 @@
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B832">
         <f t="shared" si="12"/>
@@ -12522,7 +12536,7 @@
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B833">
         <f t="shared" si="12"/>
@@ -12531,7 +12545,7 @@
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B834">
         <f t="shared" si="12"/>
@@ -12540,7 +12554,7 @@
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B835">
         <f t="shared" ref="B835:B896" si="13">$G$2/895</f>
@@ -12549,7 +12563,7 @@
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B836">
         <f t="shared" si="13"/>
@@ -12558,7 +12572,7 @@
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B837">
         <f t="shared" si="13"/>
@@ -12567,7 +12581,7 @@
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B838">
         <f t="shared" si="13"/>
@@ -12576,7 +12590,7 @@
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B839">
         <f t="shared" si="13"/>
@@ -12585,7 +12599,7 @@
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B840">
         <f t="shared" si="13"/>
@@ -12594,7 +12608,7 @@
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B841">
         <f t="shared" si="13"/>
@@ -12603,7 +12617,7 @@
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B842">
         <f t="shared" si="13"/>
@@ -12612,7 +12626,7 @@
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B843">
         <f t="shared" si="13"/>
@@ -12621,7 +12635,7 @@
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B844">
         <f t="shared" si="13"/>
@@ -12630,7 +12644,7 @@
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B845">
         <f t="shared" si="13"/>
@@ -12639,7 +12653,7 @@
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B846">
         <f t="shared" si="13"/>
@@ -12648,7 +12662,7 @@
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B847">
         <f t="shared" si="13"/>
@@ -12657,7 +12671,7 @@
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B848">
         <f t="shared" si="13"/>
@@ -12666,7 +12680,7 @@
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B849">
         <f t="shared" si="13"/>
@@ -12675,7 +12689,7 @@
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B850">
         <f t="shared" si="13"/>
@@ -12684,7 +12698,7 @@
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B851">
         <f t="shared" si="13"/>
@@ -12693,7 +12707,7 @@
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B852">
         <f t="shared" si="13"/>
@@ -12702,7 +12716,7 @@
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B853">
         <f t="shared" si="13"/>
@@ -12711,7 +12725,7 @@
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B854">
         <f t="shared" si="13"/>
@@ -12720,7 +12734,7 @@
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B855">
         <f t="shared" si="13"/>
@@ -12729,7 +12743,7 @@
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B856">
         <f t="shared" si="13"/>
@@ -12738,7 +12752,7 @@
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B857">
         <f t="shared" si="13"/>
@@ -12747,7 +12761,7 @@
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B858">
         <f t="shared" si="13"/>
@@ -12756,7 +12770,7 @@
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B859">
         <f t="shared" si="13"/>
@@ -12765,7 +12779,7 @@
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B860">
         <f t="shared" si="13"/>
@@ -12774,7 +12788,7 @@
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B861">
         <f t="shared" si="13"/>
@@ -12783,7 +12797,7 @@
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B862">
         <f t="shared" si="13"/>
@@ -12792,7 +12806,7 @@
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B863">
         <f t="shared" si="13"/>
@@ -12801,7 +12815,7 @@
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B864">
         <f t="shared" si="13"/>
@@ -12810,7 +12824,7 @@
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B865">
         <f t="shared" si="13"/>
@@ -12819,7 +12833,7 @@
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B866">
         <f t="shared" si="13"/>
@@ -12828,7 +12842,7 @@
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B867">
         <f t="shared" si="13"/>
@@ -12837,7 +12851,7 @@
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B868">
         <f t="shared" si="13"/>
@@ -12846,7 +12860,7 @@
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B869">
         <f t="shared" si="13"/>
@@ -12855,7 +12869,7 @@
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B870">
         <f t="shared" si="13"/>
@@ -12864,7 +12878,7 @@
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B871">
         <f t="shared" si="13"/>
@@ -12873,7 +12887,7 @@
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B872">
         <f t="shared" si="13"/>
@@ -12882,7 +12896,7 @@
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B873">
         <f t="shared" si="13"/>
@@ -12891,7 +12905,7 @@
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B874">
         <f t="shared" si="13"/>
@@ -12900,7 +12914,7 @@
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B875">
         <f t="shared" si="13"/>
@@ -12909,7 +12923,7 @@
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B876">
         <f t="shared" si="13"/>
@@ -12918,7 +12932,7 @@
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B877">
         <f t="shared" si="13"/>
@@ -12927,7 +12941,7 @@
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B878">
         <f t="shared" si="13"/>
@@ -12936,7 +12950,7 @@
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B879">
         <f t="shared" si="13"/>
@@ -12945,7 +12959,7 @@
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B880">
         <f t="shared" si="13"/>
@@ -12954,7 +12968,7 @@
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B881">
         <f t="shared" si="13"/>
@@ -12963,7 +12977,7 @@
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B882">
         <f t="shared" si="13"/>
@@ -12972,7 +12986,7 @@
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B883">
         <f t="shared" si="13"/>
@@ -12981,7 +12995,7 @@
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B884">
         <f t="shared" si="13"/>
@@ -12990,7 +13004,7 @@
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B885">
         <f t="shared" si="13"/>
@@ -12999,7 +13013,7 @@
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B886">
         <f t="shared" si="13"/>
@@ -13008,7 +13022,7 @@
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B887">
         <f t="shared" si="13"/>
@@ -13017,7 +13031,7 @@
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B888">
         <f t="shared" si="13"/>
@@ -13026,7 +13040,7 @@
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B889">
         <f t="shared" si="13"/>
@@ -13035,7 +13049,7 @@
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B890">
         <f t="shared" si="13"/>
@@ -13044,7 +13058,7 @@
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B891">
         <f t="shared" si="13"/>
@@ -13053,7 +13067,7 @@
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B892">
         <f t="shared" si="13"/>
@@ -13062,7 +13076,7 @@
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B893">
         <f t="shared" si="13"/>
@@ -13071,7 +13085,7 @@
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B894">
         <f t="shared" si="13"/>
@@ -13080,7 +13094,7 @@
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B895">
         <f t="shared" si="13"/>
@@ -13089,7 +13103,7 @@
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B896">
         <f t="shared" si="13"/>

--- a/资讯媒体分档.xlsx
+++ b/资讯媒体分档.xlsx
@@ -3012,9 +3012,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -3076,14 +3076,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3091,7 +3098,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3099,7 +3106,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3114,14 +3152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3152,48 +3183,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3212,7 +3212,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3224,13 +3320,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3242,133 +3350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3387,6 +3375,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3418,23 +3418,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3455,60 +3499,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3520,10 +3520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3532,16 +3532,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3550,115 +3550,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
